--- a/news_data/2021_01.xlsx
+++ b/news_data/2021_01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,66 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 관광객 2명 추가 감염…올 들어 100명째 확진</t>
+  </si>
+  <si>
+    <t>제주도, ‘설 이후’ 관광·대중교통 종사자 코로나19 전수검사 한다</t>
+  </si>
+  <si>
+    <t>제주도 “설 연휴 이후 관광업계 종사자 전수검사 계획”</t>
+  </si>
+  <si>
+    <t>제주도, 설 연휴 이후 관광업종 종사자 '핀셋' 진단검사</t>
+  </si>
+  <si>
+    <t>작년 제주도 관광 소비액 보니...전세버스만 1년 내 몸살</t>
+  </si>
+  <si>
+    <t>㈜제주클린마스크, 제주도관광협회에 마스크 1만매 기증</t>
+  </si>
+  <si>
+    <t>한라그룹, 카카오VX와 제주도 관광단지 개발한다</t>
+  </si>
+  <si>
+    <t>제주도, 고사위기 관광업계 2000억원 융자지원</t>
+  </si>
+  <si>
+    <t>'바글바글' 제주도 옛말?…유명 관광지 대신 소도시 향하는 여행객들</t>
+  </si>
+  <si>
+    <t>[코로나19] 제주도, 설 이후 관광객 이용 시설 대상자 '전수검사' 추진</t>
+  </si>
+  <si>
+    <t>제주도, 2천억 규모 제주관광진흥기금 특별융자·상환유예 실시</t>
+  </si>
+  <si>
+    <t>세계관광기구, 제주도 개발 '관광지 혼잡도 서비스' 소개</t>
+  </si>
+  <si>
+    <t>제주도, 관광업 구제 위해 2000억 규모 융자 지원 나서</t>
+  </si>
+  <si>
+    <t>제주도, 관광업계 2천억 융자…공설시장 사용료 감면 연장</t>
+  </si>
+  <si>
+    <t>[제주도청 브리핑] “코로나19 위기 관광업계 2천억 원 융자 지원”</t>
+  </si>
+  <si>
+    <t>제주도의회 의원연구단체 '제주관광 미래성장포럼' 출범</t>
+  </si>
+  <si>
+    <t>'항공권 6900원·렌터카 10원'에도 제주도에 관광객 없다</t>
+  </si>
+  <si>
+    <t>제주도 오라관광단지사업 최후 통첩 추진 갈림길</t>
+  </si>
+  <si>
+    <t>제주도의회 오영희 의원, 문화관광해설사 근무여건 개선을 위한 조례 개정</t>
+  </si>
+  <si>
+    <t>[인사] 경찰청·한국관광공사·제주도 등</t>
+  </si>
+  <si>
     <t xml:space="preserve">제주도 서귀포시 효돈천과 하례리, 국가생태관광지역 재지정 </t>
   </si>
   <si>
@@ -52,31 +112,85 @@
     <t>[장원호 박사의 그리운 대한민국] 제주도의 오름, 한림공원, 협제동굴, 중문관...</t>
   </si>
   <si>
-    <t>제주도 서귀포시 효돈천과 하례리, 국가생태관광지역 재지정  &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 11:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포시 효돈천과 하례리, 국가생태관광지역 재지정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도 서귀포시 효돈천과 하례리, 국가생태관광지역 재지정 기자명 김영순 기자 입력 2021.01.12 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 전국 15개 지역 평가서 1위 차지 서귀포 효돈천 생태 관광을 즐기려는 수요가 급증하고 대상 지역이 확대되면서 자연생태에 관심이 높아지고 있다. 환경부 국가생태관광지인 서귀포시 ‘효돈천과 하례리’가 재지정 평가결과 전국 1위를 차지했다. 이에따라 2023년까지 3년간 재지정되는 성과를 거뒀다. 이번 평가는 환경부가 지정한 국가생태관광지역 중 지정 6년차 5개소, 지정 3년차 6개소, 개선 필요 3개소를 대상으로 실시했다. 평가 결과 14개 생태관광지역 모두 재지정 기준점수 이상을 획득했으며 그중 ‘효돈천과 하례리’는 91.3점으로 전체 평균점수 78.5를 크게 웃도는 점수를 얻었다. ‘효돈천과 하례리’는 하례리생태관광마을협의체를 중심으로 2014년 12월 생태관광지역으로 최초 지정돼 △내창트레킹 △고살리숲길 탐방 △감귤점빵 운영 △초등학생 환경프로그램 운영 등 지역주민 주도로 생태관광 프로그램을 운영하고 있다. 협의체 관계자는 “올 한해도 코로나19 영향으로 모두가 어려운 시간을 보내고 있지만,‘효돈천과 하례리’가 갖고 있는 자연생태를 직접 체험하고 느끼면서 지친 심신을 달래기를 바란다”고 말했다. 김영순 기자 kgo0325@hanmail.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ 제주지식재산센터 10월 무료 변리상담 지원 JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 포토뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 입도 관광객, 예년 4분의 1 수준으로 줄었다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 입도 관광객, 예년 4분의 1 수준으로 줄었다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 입도 관광객, 예년 4분의 1 수준으로 줄었다 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.01.15 16:48 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 1월 관광객, 작년 59만7천명→ 올해 15만명 75% 감소지역경제 전 업종 타격...'단돈 5000원 항공권' 재등장 코로나19 확산 방지를 위해 전국적으로 사회적 거리두기 방역조치가 강화된 후, 제주도를 찾는 관광객은 예년 4분의 1 수준으로 급감한 것으로 나타났다. 15일 제주특별자치도관광협회에 따르면, 올해들어 14일까지 제주도를 방문한 관광객은 총 15만 4499명으로 집계됐다. 이는 지난해 같은기간 59만 7013명이 방문했던 것과 비교하면 74.1% 줄어든 수치다. 제주 방문객이 예년 25% 수준으로 줄었다는 것이다. 하루 평균 방문객은 지난해에는 4만 643명에 달했으나, 올해에는 1만 1000명 수준으로 큰 폭 감소했다. 이러한 감소 추이는 코로나19가 1차적으로 크게 유행했던 지난해 2~5월 때 보다도 더 크게 줄어든 것이다. 제주도 입도 관광객은 코로나19가 확산되기 시작한 지난해 2월부터 4월까지 예년 절반 수준으로 감소했다가 여름 성수기를 전후해 일시적으로 회복세를 보인 바 있다. 그러다가 코로나19가 재확산된 지난해 12월부터 급속히 감소하기 시작해, 사회적 거리디가 강화된 최근에는 밑바닥 수준을 보이고 있다. 입도 관광객이 줄어들면서 여행업과 숙박업, 렌터카, 음식점 등은 다시 급속히 침체되고 있다. 항공사에서도 다시 '5000원 항공권'이 등장했다. 1만원도 안되는 돈을 주고 구입할 수 있는 항공권도 쉽게 눈에 띈다. 여기에 사회적 거리두기 밤 9시 이후 영업제한 등과 맞물려 자영업 등 대부분 업종도 타격을 받으면서 제주경제는 불황의 늪에 빠져들고 있다. 코로나19 사태가 진정되지 않는다면서 설 연휴 특수도 기대하기 어려울 것으로 전망되면서, 지역 소상공인들의 시름은 깊어만 가고 있다. 한편, 정부는 오는 16일 코로나19 방역수칙의 사회적 거리두기 단계의 조정 여부를 결정해 발표할 예정이다. 제주형 ‘2단계+α'의 거리두기가 제주도의 경우 정부의 방침을 준용하되 일부 조정하는 선에서 수위가 결정될 것으로 전망된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 위기에 처한 관광산업 재도약 705억원 투자 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 11:15 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 해상풍력 갈등관리, 중립적 객관적 중간지원기구 고민 할 때다 세상을 번역하는 영화번역가 황석희, 6일 제주대 강연 3년만에 열리는 제주물 세계포럼...지하수 보전관리 논의 제주4·3 전국화 초석 놓았다...초중고 교과서에 모두 ‘4·3 서술’ 양덕순 제주연구원장 예정자 “실용적 정책연구 추진” 공언 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 위기에 처한 관광산업 재도약 705억원 투자 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도, 위기에 처한 관광산업 재도약 705억원 투자 기자명 이승록 기자					(leerevol@naver.com) 입력 2021.01.07 16:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도는 2021년도 관광분야 정책목표를 ‘상생의 가치로 청정을 품은 안전 관광도시 제주’로 정하고 코로나19로 위기에 처한 관광산업이 재도약할 수 있는 기반을 마련하기 위한 5대 핵심전략에 705억원(일반회계 227억, 관광진흥기금 478억)을 투입한다고 7일 밝혔다.제주도는 5대 핵심전략 추진을 위해 우선 안전 관광제주 구축을 통한 관광산업 조기 회생에 190억원을 투입한다. 코로나19 위기 관광업계 지원을 위한 제주관광진흥기금 융자 예산 156억원을 편성, 1월부터 특별융자를 시행한다.영세사업체에 키오스크, 모바일 도어락 시스템 등 장비 지원과 패턴별 여행 상품 개발에 따른 상품개발비, 차량 임차료를 지원하고, 온라인 마켓‘탐나오’ 관광상품 판매 확대 및 건전 관광질서 수용태세 확립, 도내 여행사업체 등에 보증보험 지원 등 34억원을 투입한다.빅데이터 기반 관광서비스 고도화 등 스마트 관광에 4억3000만원을 투입한다.빅데이터 분석결과를 도민과 관광사업체와 공유하여 창업, 업종전환, 마케팅 등에 활용할 수 있는 시스템을 고도화 하고, 개별관광객을 위한 기후, 계절, 연령 등의 빅데이터를 기초로 관광지 추천 서비스를 본격 제공한다.관광객 혼잡도 정보 제공과 관광산업 현장에 대한 실태조사 및 모니터링 체계를 구축해 변화하는 개별 관광객 트렌드에 신속하게 대응한다.특색 있는 지역관광 육성으로 주민 소득 창출을 위한 사업에 22억원을 투입한다.주민 주도 분산형 농어촌 지역관광 상품 육성과 지역관광 역량 강화를 위한 컨설팅 및 마을관광 기획 전문가 육성을 통해 관광객 만족도를 높이는 데에도 관심을 기울인다.제주 웰니스 관광 15선 선정 등 콘텐츠 발굴 및 홍보, 지역관광 활성화를 위한 공공기관과 민간 네트워크 구축 등을 추진한다.지역특성을 반영한 권역별 관광자원 발굴 및 육성과 새로운 지역 유망 관광산업 육성을 통한 일자리 창출*도 추진한다안전하고 지속가능한 제주 MICE 환경 조성에 175억원을 투입한다.제주국제컨벤션센터 MICE 복합시설 확충 추진에 88억원, MICE 비대면 환경 변화에 따른 IT 기술 지원 등 지원제도 개선, 전시 및 특화 컨벤션, 제주유니크베뉴 등을 발굴 지원한다.스마트하고 안전한 MICE 환경 조성을 위해 포스트코로나 대응 MICE 셔틀버스 및 행사장방역 지원과 스마트 마이스 베뉴 구축 및 컨벤션센터 시설개선, 그린 MICE 산업대전 신청 여행업체 지원 및 캠페인 등 그린 뉴딜사업도 추진한다.제주관광시장에 알맞는 관광환경 맞춤형 마케팅에  104억원을 투입한다.코로나 일상 속 새로운 관광환경 맞춤형 전략적 마케팅 강화를 위해 스마트투어 관광정보 플랫폼 혁신과 소셜미디어 운영자, 유명 인플루언서 활용 제주여행콘텐츠 공모전을 운영한다.국가별 코로나19 상황 단계별로 맞춤형 마케팅도 가동해 해외수요 조기 회복을 준비해 나간다.해외시장 우위 선점을 위한 국제노선 조기복항 등 접근성 확충을 위해 트래블버블 우수방역국가 대상 온·오프라인 집중 마케팅도 준비한다.코로나19로 어려움을 겪고 있는 도내 관광업계를 지원하기 위해 단체관광객 유치 마케팅 지원 사업 등에 15억원을 지원한다.제주도는 이외에도 방문관광객 실태조사, 삼다공원야간콘서트, 관광공사  전출금 등 제주관광 경쟁력 강화에 147억원, 관광객 환대서비스 개선에 17억원, 문화관광해설사 활동 지원에 11억원을 투입할 계획이다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 도정에 입맛에 따라 움직이던 분으로 기억하는데....전임이 아예 보수정치꼬리표를 달았다면 이분은 색깔없이 정치하는 분이란 느낌이.... 2 구직 청년 왜이렇게 많음? ㄷㄷㄷㄷ 미깡이라도 따래 댕기라 마농 심글땐 마농밭가고 3 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 5 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 6 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 7 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 8 썬오브 비치 9 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 10 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>[신년사] 제주관광 정상화 역량 집중 / 부동석 제주도관광협회 회장 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 11:15 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 해상풍력 갈등관리, 중립적 객관적 중간지원기구 고민 할 때다 세상을 번역하는 영화번역가 황석희, 6일 제주대 강연 3년만에 열리는 제주물 세계포럼...지하수 보전관리 논의 제주4·3 전국화 초석 놓았다...초중고 교과서에 모두 ‘4·3 서술’ 양덕순 제주연구원장 예정자 “실용적 정책연구 추진” 공언 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 [신년사] 제주관광 정상화 역량 집중 / 부동석 제주도관광협회 회장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 [신년사] 제주관광 정상화 역량 집중 / 부동석 제주도관광협회 회장 기자명 부동석					(news@jejusori.net) 입력 2021.01.04 10:01 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 부동석 제주도관광협회 회장.2021년 신축년 새해가 밝았습니다. 코로나19라는 전대미문 초유의 사태를 겪으면서도 제주관광을 위해 치열한 한해를 보낸 관광인 여러분께 깊은 존경과 감사의 말씀을 드립니다. 올해에도 제주관광은 어려운 해가 이어질 것으로 예상하고 있습니다. 올해 우리 협회는 경영난을 겪고 있는 업계의 경쟁력을 회복하기 위해 체계적인 방역, 적극적인 관광객 유치 마케팅 지원을 통한 제주관광의 정상화를  최우선 목표로 삼고 모든 역량을 집중하여 사업을 추진해 나가겠습니다.먼저 관광사업체 지원확대를 통한 경영 정상화입니다. 이를 위해 개별·단체 패키지 관광객들을 대상으로 타깃별 마케팅을 지원해 나가겠습니다. 또한, 위드코로나 온오프라인 마케팅 지원을 확대하여 사업체의 경영을 정상화하는데 노력하겠습니다. 아울러 업계 보험 컨설팅 및 비용 지원을 통한 부담을 최소화 해나겠습니다. 다음으로 체계적인 방역지원을 통한 안전한 관광환경을 조성하는데 심혈을 기울이겠습니다. 이를 위해 방역물품 확대 지원을 통한 업계 방역활동을 강화해 나가고, 정기적인 현장방역 지도점검을 통한 체계적인 방역을 관리해 나가겠습니다. 또한 공항만 입도객을 대상으로 방역 캠페인 전개로 지역사회 전파 차단에 집중력을 기하겠습니다. 그 다음으로 관광 수용태세 개선을 통한 관광객 만족도 향상을 위해 더욱 분발하도록 하겠습니다. 이를 위해 관광객 접근성 확대를 위한 수용태세를 개선해 나가겠습니다. 아울러 전문적인 종합관광안내를 통한 정보접근성을 강화해 나가면서 관광객 환대서비스 개선을 통한 만족도 향상에 초점을 맞춰 나가겠습니다. 항상 우리 제주관광협회에 관심을 가지고 보내주신 변함없는 사랑과 뜨거운 성원에 진심으로 감사를 드리며, 신축년 새해에도 지속적인 관심과 성원을 부탁드립니다. 새해에는 무엇보다 건강하시고 기쁜 일들만 함께 하시길 바랍니다. 새해 복 많이 받으십시오. 부동석 news@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 도정에 입맛에 따라 움직이던 분으로 기억하는데....전임이 아예 보수정치꼬리표를 달았다면 이분은 색깔없이 정치하는 분이란 느낌이.... 2 구직 청년 왜이렇게 많음? ㄷㄷㄷㄷ 미깡이라도 따래 댕기라 마농 심글땐 마농밭가고 3 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 5 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 6 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 7 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 8 썬오브 비치 9 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 10 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도내 관광지·명소 등 109곳 임시폐쇄…현장기동감찰팀 운영 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 제주도내 관광지·명소 등 109곳 임시폐쇄…현장기동감찰팀 운영 입력 2021.01.01 (07:43) 수정 2021.01.01 (07:47) 뉴스광장(제주) 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상 고정 취소 이전기사 다음기사 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 [앵커] 연말연시를 맞았지만 코로나19로 여느 때와는 다른 상황입니다. 제주도가 감염 확산을 막겠다며 다음 달 3일까지 일출 명소와 관광지 등 109곳을 임시 폐쇄했는데, 일부 현장에선 제대로 지켜지지 않고 있습니다. 신익환 기자입니다. [리포트] 매년 이맘때 성산일출봉과 주요 일출 명소에서 열렸던 일출 축제는 이번엔 볼 수 없습니다. 코로나19 확산에 따른 연말연시 특별방역대책으로 도내 주요 관광지가 임시 폐쇄됐기 때문입니다. 제주도는 성산일출봉과 한라산국립공원 등 공영 관광지 11곳과 오름 34곳에 대한 출입을 제한한 데 이어, 한라수목원과 해수욕장 등 관광지 64곳도 추가로 폐쇄했습니다. 제주지역의 대표 관광지인 협재해수욕장 입구입니다. 임시 폐쇄를 알리는 현수막이 내걸렸습니다. 하지만 현장에선 통제선이나 통제하는 인원이 없는 곳도 있다보니 제대로 지켜지지 않았습니다.[관광객/음성변조 : "뭐 따로 (통제선 같은게) 처져 있는 건 없어서, 다 뚤려있던데요."] 한 해수욕장에선 폐쇄 조치에도 서핑을 하는 사람도 있었습니다. 사회적 거리두기가 2단계로 격상된 지난 18일부터 방역수칙 위반으로 제주도에서 시정조치한 사례가 20건을 넘어섰습니다. 제주도는 감염 취약지인 PC방과 키즈카페, 중점관리시설인 유흥시설과 식당, 카페 등의 방역 수칙 이행 여부를 점검하기 위해 현장기동감찰팀을 꾸렸습니다.[이중환/제주도 총괄조정관 : "방역수칙 위반 사실 발견 시에는 감염병 예방 및 관리에 관한 법률에 따라서 운영자에게는 3백만 원 이하의 벌금 또는 과태료를, 이용자에게는 십만 원 이하의 과태료를 부과할 계획입니다."] 제주도는 도내 자가 격리자들에 대한 불시 점검도 진행해 방역수칙 준수 위반 사례 여부도 확인할 방침입니다. KBS 뉴스 신익환입니다. 제주도내 관광지·명소 등 109곳 임시폐쇄…현장기동감찰팀 운영 입력 2021-01-01 07:43:31 수정2021-01-01 07:47:35 뉴스광장(제주) [앵커] 연말연시를 맞았지만 코로나19로 여느 때와는 다른 상황입니다. 제주도가 감염 확산을 막겠다며 다음 달 3일까지 일출 명소와 관광지 등 109곳을 임시 폐쇄했는데, 일부 현장에선 제대로 지켜지지 않고 있습니다. 신익환 기자입니다. [리포트] 매년 이맘때 성산일출봉과 주요 일출 명소에서 열렸던 일출 축제는 이번엔 볼 수 없습니다. 코로나19 확산에 따른 연말연시 특별방역대책으로 도내 주요 관광지가 임시 폐쇄됐기 때문입니다. 제주도는 성산일출봉과 한라산국립공원 등 공영 관광지 11곳과 오름 34곳에 대한 출입을 제한한 데 이어, 한라수목원과 해수욕장 등 관광지 64곳도 추가로 폐쇄했습니다. 제주지역의 대표 관광지인 협재해수욕장 입구입니다. 임시 폐쇄를 알리는 현수막이 내걸렸습니다. 하지만 현장에선 통제선이나 통제하는 인원이 없는 곳도 있다보니 제대로 지켜지지 않았습니다.[관광객/음성변조 : "뭐 따로 (통제선 같은게) 처져 있는 건 없어서, 다 뚤려있던데요."] 한 해수욕장에선 폐쇄 조치에도 서핑을 하는 사람도 있었습니다. 사회적 거리두기가 2단계로 격상된 지난 18일부터 방역수칙 위반으로 제주도에서 시정조치한 사례가 20건을 넘어섰습니다. 제주도는 감염 취약지인 PC방과 키즈카페, 중점관리시설인 유흥시설과 식당, 카페 등의 방역 수칙 이행 여부를 점검하기 위해 현장기동감찰팀을 꾸렸습니다.[이중환/제주도 총괄조정관 : "방역수칙 위반 사실 발견 시에는 감염병 예방 및 관리에 관한 법률에 따라서 운영자에게는 3백만 원 이하의 벌금 또는 과태료를, 이용자에게는 십만 원 이하의 과태료를 부과할 계획입니다."] 제주도는 도내 자가 격리자들에 대한 불시 점검도 진행해 방역수칙 준수 위반 사례 여부도 확인할 방침입니다. KBS 뉴스 신익환입니다. 뉴스광장(제주) 전체보기 기자 정보 신익환 기자 sih@kbs.co.kr 신익환 기자의 기사 모음 댓글 좋아요 공유하기 제주-주요뉴스 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
-  </si>
-  <si>
-    <t>제주도, 705억 예산 투입..코로나19 위기 ‘관광산업’ 재도약 기반 마련 - 투어코리아 - No.1 여행·축제 뉴스 × 전체기사 이슈 전체 정책 지역 사회 피플 여행 전체 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 전체 국내인기축제 세계축제 라이프 전체 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 최종편집 : 2022-10-04 11:11 (화) 처음으로 로그인 회원가입 facebook twitter rss post kakaoch instagram in-naver 전체기사 이슈 정책 지역 사회 피플 여행 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 국내인기축제 세계축제 라이프 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 기사검색 검색 실시간 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 폐광지역 4개 시군 잇는 '운탄고도1330 걷는 길' 개통! 매혹적인 휴양지 발리서 보내는 오붓 달콤한 허니문! 제천한방바이오박람회,유명가수 무대공연 등 볼거리 풍성 곡성군, 남도 숙박 할인 BIG 이벤트 참여 업소 모집 10월 단양은 볼거리‧먹거리‧즐길거리 ‘풍성’ ‘파주시 관광사진 공모전’ 개최...4~7일 작품 접수 '하회선유줄불놀이 아름다움 관광객들 탄성' 음성군 통합 농산물 축제‘음성명작페스티벌’ 5일 개막 핫뉴스 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 10월엔 경남 축제·문화 따라 가을여행! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 부여의 맛·멋·흥 100% 즐기는 법 11~12월엔 초특가 항공권으로 일본·베트남·필리핀 알뜰여행을! 풍자와 해학 '음성품바축제' 관람객 북적 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 풍성한 가을축제로 부산 매력에 빠져봐요! 감성 채워주는 공주 힐링스폿! 경주·광양·속초·진주·충주시 등 8곳 예비문화도시 지정 [포토] 핑크뮬리 유혹하는 함평 석두마을 26일부터 실외 마스크 전면 해제…실내는 유지 이전 다음 제주도, 705억 예산 투입..코로나19 위기 ‘관광산업’ 재도약 기반 마련 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 이슈 제주도, 705억 예산 투입..코로나19 위기 ‘관광산업’ 재도약 기반 마련 정하성 기자 승인 2021.01.08 16:45 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 제주관광진흥기금 융자 조기시행, 관광산업 회생에 주력 제주도는 올해 5대 핵심전략에 총 705억 원을 투입, 코로나19로 위기에 처한 관광산업이 재도약할 수 있는 기반 마련에 나선다. 올해 관광분야 정책목표를 ‘상생의 가치로 청정을 품은 안전 관광도시 제주’로 잡고, 일반회계 227억, 관광진흥기금 478억 등 총 705억 원을 투입할 방침이다. 5대 핵심전략 추진을 위해 ▲안전 관광제주 구축을 통한 관광산업 조기 회생에 190억 원 ▲빅데이터 기반 관광서비스 고도화 등 스마트 관광에 4.3억 원 ▲특색 있는 지역관광 육성으로 주민 소득 창출을 위한 사업에 22억 원 ▲지속가능한 제주 MICE 환경 조성에 175억 원 ▲제주관광시장에 알맞는 관광환경 맞춤형 마케팅에 104억 원 등을 투입한다. 제주도청 우선 관광산업 조기 회생을 위해 제주관광진흥기금 융자 예산 156억 원을 편성하고, 1월부터 특별융자를 시행한다. 또한 영세사업체에 키오스크, 모바일 도어락 시스템 등 장비 지원과 패턴별 여행 상품 개발에 따른 상품개발비, 차량 임차료를 지원하고, 온라인 마켓 ‘탐나오’ 관광상품 판매 확대, 도내 여행사업체 등에 보증보험 지원 등 34억 원을 투입할 계획이다. 제주 웰니스 관광 15선 선정 등 콘텐츠 발굴 및 홍보, 지역관광 활성화를 위한 공공기관과 민간 네트워크 구축 등을 추진한다. MICE 비대면 환경 변화에 따른 IT 기술 지원하고, 전시 및 특화 컨벤션, 제주유니크베뉴 등 발굴도 지원한다. 포스트코로나 대응 MICE 셔틀버스 및 행사장방역 지원과 스마트 마이스 베뉴 구축 및 컨벤션센터 시설개선, 그린 MICE 산업대전 신청 여행업체 지원 및 캠페인 등 그린 뉴딜사업도 추진한다. 코로나 일상 속 새로운 관광환경 맞춤형 전략적 마케팅 강화를 위해 스마트투어 관광정보 플랫폼 혁신과 소셜미디어 운영자, 유명 인플루언서 활용 제주여행콘텐츠 공모전을 운영한다. 국가별 코로나19 상황 단계별로 맞춤형 마케팅도 가동해 해외수요 조기 회복을 준비해 나간다. 해외시장 우위 선점을 위한 국제노선 조기복항 등 접근성 확충을 위하여 트래블버블 우수방역국가 대상 온·오프라인 마케팅에도 집중한다. 코로나19로 어려움을 겪고 있는 도내 관광업계를 위해 단체관광객 유치 마케팅 지원 사업 등에 15억 원을 지원한다. 이외에도 방문관광객 실태조사, 삼다공원야간콘서트, 관광공사  전출금 등 제주관광 경쟁력 강화에 147억 원, 관광객 환대서비스 개선에 17억 원, 문화관광해설사 활동 지원에 11억 원을 투입할 계획이다. 김재웅 제주도 관광국장은 “코로나19로 인해 관광산업이 어려움에 있는 만큼 관광업계 및 유관기관과 긴밀하게 협업해 관광산업 회생에 전 행정력을 집중하고, 기금 조기 지원 및 재정 신속 집행에도 우선순위를 둬 적극 추진하겠다”고 밝혔다. 한편, 지난해 제주를 찾은 관광객은 1,023만 명(잠정)으로 전년보다 33% 감소했다. 관광객은 내국인 1,002만 명, 외국인 21만 명으로 각각 26.1%, 87.7% 줄어들었다. 저작권자 © 투어코리아 - No.1 여행·축제 뉴스 무단전재 및 재배포 금지 정하성 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 당신만 안 본 뉴스 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 10월엔 경남 축제·문화 따라 가을여행! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 부여의 맛·멋·흥 100% 즐기는 법 11~12월엔 초특가 항공권으로 일본·베트남·필리핀 알뜰여행을! 풍자와 해학 '음성품바축제' 관람객 북적 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 에디터 초이스 ENTERTAINMENT ‘제2의 우영우’로 불리는 차기작 위해 연기대상 배우가 내린 결단 ENTERTAINMENT ‘김치 싸대기’ 맞고 대박났던 배우가 8년 만에 공개한 당시 상황 ENTERTAINMENT 새 드라마 촬영 중인 수지, 길거리에서 포착된 모습에 난리난 이유 BIZ 기아 쏘렌토 PHEV, 미국 가격은 7천만 원부터 시작 ENTERTAINMENT 내 꿈은 농구스타! 스크린이 아닌 코트에서 만날 뻔했던 배우들 TRIP 교동도의 새로운 이유, 강화 화개산 모노레일 ENTERTAINMENT 김정현, '가스라이팅 논란' 후 복귀작 '꼭두의 계절'...김정현의 계절 만들까 FOOD Find Dining | 엄선한 가을 보양식 투어코리아 Cover 145호 2022-10-01 구독신청 지난호보기 기사제보 광고문의 기자회원 신청 투어코리아 SNS 주요기사 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 폐광지역 4개 시군 잇는 '운탄고도1330 걷는 길' 개통! 매혹적인 휴양지 발리서 보내는 오붓 달콤한 허니문! 투어코리아가 만난사람 [인터뷰] 박일호 밀양시장 “관광객이 감동하는 밀양 만들기 위해 고민” 국내축제 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 세계축제 진정한 미식가 축제 ‘싱가포르 푸드 페스티벌’ 팬데믹 이후 첫 대면 개최 국내여행 울산 태화강에서 ‘물억새군락지' 생태관광 즐겨요! 테마여행 올가을, 댕댕이와 크루즈 여행떠나요! 아시아 인스타그램 ‘좋아요’ 부르는 '힙한 홍콩 카페' 어디? 유럽 가을 낭만 더하는 이스탄불의 거리 탑3 미국·캐나다·중남미 배우 이기우 추천 캘리포니아 펫 프렌들리 여행지, '아빌라 비치' 중동·아프리카 로맨스 인 두바이? 사막에서 별빛 샤워, 관람차에서 야경 만끽! 오세아니아 '럭셔리 항공 투어'로 호주의 대자연 색다르게 즐겨봐! 전문가칼럼 [119기고] 공동주택 화재 안전은 피난설비 올바른 숙지부터 시작 최신뉴스 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 폐광지역 4개 시군 잇는 '운탄고도1330 걷는 길' 개통! 포토뉴스 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 인기뉴스 1 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 2 10월엔 경남 축제·문화 따라 가을여행! 3 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 4 부여의 맛·멋·흥 100% 즐기는 법 5 11~12월엔 초특가 항공권으로 일본·베트남·필리핀 알뜰여행을! 6 풍자와 해학 '음성품바축제' 관람객 북적 7 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 8 풍성한 가을축제로 부산 매력에 빠져봐요! 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 법인명 : (주)태건미디어 사업자 등록번호 : 105-87-36240 서울특별시 종로구 송월길 136 301호 발행·편집인 : 유경훈 청소년보호책임자 : 조성란 대표전화 : 02-326-0002 이메일 : webmaster@tournews21.com 투어코리아 정기간행물 등록번호 : 종로 라 00420 등록일 : 2009-12-14 투어코리아뉴스 인터넷신문 등록번호 : 서울 아 03491 등록일 : 2014-12-18 발행일 : 2014-12-18 투어코리아 - No.1 여행·축제 뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 투어코리아 - No.1 여행·축제 뉴스. All rights reserved. mail to webmaster@tournews21.com 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회 사랑나눔봉사단, 희망나눔 성금 기탁 &lt; 사회/교육 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 11:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 사랑나눔봉사단, 희망나눔 성금 기탁 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회/교육 제주도관광협회 사랑나눔봉사단, 희망나눔 성금 기탁 기자명 제주매일 입력 2021.01.05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도 관광협회(회장 부동석) 사랑나눔봉사단은  4일 제주종합비지니스센터에서 소외된 이웃을 위한 희망나눔 특별성금 300만원을 대한적십자사제주특별자치도지사(회장 오홍식)에 기탁했다. 부동석 회장은 “최근 코로나19로 도내 관광업이 어려운 상황임에도 회원들이 한마음 한뜻으로 마음을 모았다”며 “앞으로도 소외된 이웃에게 희망을 전하는 나눔과 봉사활동에 동참하도록 노력하겠다”고 말했다. 한편, 협회는 지역사회 나눔문화 확산에 기여한 공로로 적십자회원유공장 명예장을 수상한 바 있다. 제주매일 news@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ 제주지식재산센터 10월 무료 변리상담 지원 JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 포토뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 제주소년원에 TV 전달 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 11:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주소년원에 TV 전달 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회, 제주소년원에 TV 전달 기자명 제주매일 입력 2021.01.03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회 사업 지원분과위원회(회장 고철원)는 최근 소년원을 방문해 100만원 상당의 32인치 LED TV 3대를 전달했다고 밝혔다. 제주특별자치도관광협회 사업지원분과위원회는 해마다 어려운 이웃을 도와주고 있으며, 올해는 제주소년원에 TV를 전달했다. 고철원 회장은 “코로나19로 모두가 힘든 시기지만 학생들에게 작은 도움 이나마 주고 싶은 마음에 회원들과 뜻을 모았고, 학생들을 직접 만나 전하지 못해 아쉽지만 코로나19를 잘 이겨내길 바란다”고 말했다. 민근기 원장은 “코로나19 장기화로 면회와 외부활동이 제한되었지만 학생들에게 많은 관심과 손길을 전하는 지역 사회의 여러 기관과 단체에 감사하며  학생들의 올바른 성장을 위해 노력하겠다”고 감사의 마음을 전했다. 제주매일 news@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ 제주지식재산센터 10월 무료 변리상담 지원 JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 포토뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>[장원호 박사의 그리운 대한민국] 제주도의 오름, 한림공원, 협제동굴, 중문관광단지, 성산포는 언제 보아도 신비롭다 - CIVICNEWS(시빅뉴스) × 전체기사 뉴스 전체 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 전체 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 이철우 교수의 에너지와 국제정치 북녘말 남녘말 글로벌 탐방 황령산칼럼 전체 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 권만우 칼럼 오피니언 전체 시빅칼럼 시빅광장 시빅건강칼럼 카드뉴스 전체 카드뉴스 포토뉴스 동영상 전체 줌인 시빅TV 콘텐츠 DB 전체 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 news roundup 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 UPDATED. 2022-10-04 10:39 (화) 로그인 회원가입 모바일웹 tiwt facebook naver youtube 모바일웹 전체 뉴스 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 황령산칼럼 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 오피니언 시빅광장 시빅건강칼럼 시빅칼럼 카드뉴스 카드뉴스 포토뉴스 동영상 줌인 시빅TV 콘텐츠 DB 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 기사검색 검색 뉴스 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 황령산칼럼 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 오피니언 시빅광장 시빅건강칼럼 시빅칼럼 카드뉴스 카드뉴스 포토뉴스 동영상 줌인 시빅TV 콘텐츠 DB 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 이전 다음 [장원호 박사의 그리운 대한민국] 제주도의 오름, 한림공원, 협제동굴, 중문관광단지, 성산포는 언제 보아도 신비롭다 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 기획 장원호 박사의 그리운 대한민국 [장원호 박사의 그리운 대한민국] 제주도의 오름, 한림공원, 협제동굴, 중문관광단지, 성산포는 언제 보아도 신비롭다 장원호 승인 2021.01.16 11:31 댓글 0 페이스북 트위터 카카오스토리 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도의 크고 작은 오름 오르며 '오름에서 태어나 오름으로 돌아간다'는 말 음미 한림공원은 개인이 가꾸고 키웠다는 정성이 한아름 가득 협제동굴의 신비로움을 즐기며 제주의 멋에 빠지다 흔들리는 가을 억새와 붉게 물든 하늘이 아름답게 어우러지는 제주도에 우리 세가족이 일 주일간을 같이 보내는 계획이 2017년에 섰다. 작은 아들 유진이 가족과 큰 아들 철준이 가족은  10월 26일 먼저 내려가고, 철준이와 우리 내외 셋은 10월 28일 대구에서 조카 은정이 결혼식을 마치고 저녁 비행기로 제주에 도착했다. 제주도 오름에서 볼 수 있는 억새는 한국 어디에서 본 것보다 가장 아름다웠다(사진: 장원호 박사 제공). 마침 사돈 이삼열 박사의 친지가 제주시에 아름다운 별장을 갖고 있어서, 우리는 그 집을 빌려 우리 가족 일행 9명이 오붓한 휴양과 관광을 즐길 수 있었다. 우리 가족이 두 팀으로 나뉘어 내려가게 되니, 차도 두 대를 빌려서 제주도를 여행하게 됐다. 첫 날 처음 들린 곳은 한담 해안이었다. 제주 삼다의 하나인 바람이 무척 세게 부는 가을 날씨때문에 유명한 산책로를 걷지 못한 것이 아쉬웠다. 잔뜩 찌푸리고 바람이 세차게 불어대는 날씨에도 해변 모래는 스스로 눈부시고, 드넓은 해안으로 밀려드는 파도는 여전히 옅은 푸름을 머금고 있었다. 해변에서 멀어질수록 조금씩 짙어지는 바다색 덕분에 한담 해안은 제주에서 가장 깨끗하다고 소문난 곳이다. 바다가 내려다보이는 언덕 위는 예쁜 카페와 숙박업소가 자리 잡았고, 그 빈틈에 원형을 유지한 공원도 정겨웠다. 바다가 내려다보이는 한담마을 언덕엔 대형 카페 봄날이 자리 잡고 있었다. 봄날 카페 건물은 안팎으로 바다를 가득 품은 천혜의 위치에 있으며 MBC가 '맨도롤 또똣'이란 드라마를 촬영했다고 해서 유명해졌다고 한다. 한담 해안 곳곳에는 아름다운 카페가 여럿 있다. 카페 정원에서 가족이 포즈를 취했다(사진: 장원호 박사 제공). 한담 해안 카페 중 하나는 MBC 드라마 '맨도롤 또똣' 촬영지로 유명해졌다고 한다(사진: 장원호 박사 제공). 한담 해안의 바닷가를 배경으로 가족이 모였다. 한담 해안의 짓푸른 바닷색이 유명하다(사진: 장원호 박사 제공). 한담 마을을 보고 그 근처에 있는 한림 공원을 찾았다. 어느 여름에 협제 해수욕장을 왔던 기억이 까마득한데, 그 시절에 이 공원을 가보자고 일행이 제안했지만 그냥 지나쳤던 것을 후회하고 있던 참이었다. 10만여 평이 넘는 면적 위에 하늘로 우뚝 뻗은 야자수 군락과 울창한 소나무 수풀로 둘러 싸인 한림공원은 아직도 살아 있는 92세의 송병규 씨가 만든 개인 소유 공원이다. 제주를 사랑하는 마음으로 온갖 정성을 드려서 만든 이 공원에는 다양한 종류의 꽃과 나무가 사계절 아름다운 경관을 연출한다. 특히, 야자수길, 협재와 쌍용동굴, 아열대식물원, 제주 분재원, 재암 민속 마을, 수석전시관, 새가 있는 정원, 연못정원 등이 있어서 볼거리가 지천으로 널려 있었다. 한림 공원은 개인 소유의 공원으로 야자수와 우거진 수풀로 덮여 있고 각종 볼거리가 많다(사진: 장원호 박사 제공). 한림 공원 내의 아름다운 식물원 모습(사진: 장원호 박사 제공). 협제 동굴은 250만 년 전 한라산 일대의 화산이 폭발하면서 용암이 흘러내려 형성된 검은 색의 용암 동굴이다. 주변에서 동굴로 스며드는 석회수로 인하여 황금 빛 석회동굴로 변해가는 신비스러운 모습을 볼 수 있는 세계 유일의 2차원 복합 동굴이라고 한다. 협제 동굴은 석회 동굴에서만 볼 수 있는 석순과 종유석들이 자라고 있는 용암 동굴로서 학술적 가치를 크게 인정받고 있다고 한다. 그리고 동굴의 내부 천정 모습이 마치 두 마리 용이 빠져 나온 모양을 하고 있어서 쌍용동굴이라고도 불린다. 협제공원을 나와서 남쪽으로 조금 내려가면 제주도의 새로운 명소 중문관광단지가 있다. 이 곳은 제주의 독특한 자연 경관과 지리적 조건을 활용하여 국제적인 휴양지로 개발하고자 한국관광공사가 1978년부터 서귀포 옆에 조성한 엄청난 규모를 자랑하는 광광지다. 이 개발 초기인 전두환 정권 시절에 나는 KOBACO(한국방송광고공사)가 건설한 중문 골프장을 몇 번 다녀 올 기회가 있었는데, 당시에는 이곳이 지금과 같은 엄청난 규모의 관광단지로 발전하리라고는 상상도 하지 못했다. 중문관광 단지는 제주도의 관광산업이 국제적인 수준으로 발전할 수 있게 된 원동력이 됐다고 한다. 제주도는 화산으로 이루어 진 큰 섬이다. 땅바닥에는 아직도 검은 화산석이 깔려 있고, 사방에 검은 화산석이 쌓여있다. 그리고 한라산 높은 산 위에 자리 잡은 백록담도 화산이 솟아나던 분화구였다고 한다. 제주를 사랑하는 사람들은 제주에 360여 개가 넘는 크고 작고, 유명하고, 때론 이름도 없는 오름을 사랑한다. 나는 제주에 올 때마다 유명한 오름을 찾아 다녔지만 잘 안 알려진 많은 오름이 언제나 새삼스럽고 신비스럽다. 제주 사람들에게 오름은 마음의 고향이다. ‘오름에서 태어나 오름으로 돌아간다’고 할 만큼 제주인들에게 오름은 삶의 터전이자 공기와도 같은 생활환경이다. 오름 가까이 마을이 생겨났고 죽은 자는 오름 자락에 산담의 보호 아래 묻혔다. 각각의 오름에는 제주 사람들의 얼과 혼이 서려있다. 최근에는 제주 사람들 뿐만 아니라 여행자들에게도 오름이 관심의 대상이 되고 있다. 저마다 다른 생김새, 올라서 바라보는 장쾌한 풍경, 사시사철 다르게 피어나는 야생화들, 마소가 한가로이 풀을 뜯는 목가적인 풍경 등 오름이 연출하는 제주의 독특한 자연은 언제나 우리가 가까이 만날 수 있고 제주인의 삶의 향기를 맡을 수 있는 곳이다. 오름은 대부분 화산석 송이로 이루어져 있다. 비가 많이 내려도 금방 빠져 나가 버리고, 뿌리를 지탱할 만큼 흙이 단단하지 않아 큰 나무보다는 풀들이 잘 자라는 초지였다고 한다. 현재의 숲이 있는 오름은 사람들이 일부러 나무를 심어놓고 관리해서 숲이 울창해진 것이라고 한다. 오름은 그 형태가 제각각이다. 원추형으로 솟아있는가 하면, 분화구(굼부리)를 지니고 있다는 것도 있다. 원형도 있지만 대부분은 말굽형으로 지질이 약한 쪽으로 흘러내리거나 무너져 내린 형태를 하고 있다. 오름 분화구에 물을 가득 담고 있는 화구호가 있는 오름들은 신비롭다. 한라산 등산로 변에 위치한 사라오름과 사려니숲길에 위치한 물찻오름을 비롯하여 람사르 습지로 지정된 물영아리, 물장오리 등 화구호가 있는 오 은 모두 9곳이 있다. 바람이 몹시 부는 저녁에 공항 근처 오솔록 다원을 갔다. 오솔록 주변은 이곳이 올 때마다 들렸지만, 이번에는 다원 옆에 세워진 'Innisfree Jeju House'에 들려 예쁘게 만든 케익과 차를 마셔보고 싶었다. 이 멋진 하우스는 이니스프리 모음재단에서 경영하며, 이 재단은 '제주의 가치를 더한다'는 슬로건으로 제주 본연의 가치를 지키고 사회와 함께 가꾸어 다시 제주에 제공한다는 공익적 목적을 가지고 있다고 한다. 이 재단의 고상한 의지에 감명 받아 우리 일행은 좀 비싼 차와 케익을 먹었고, 또 작은 선물을 아낌없이 샀다. 우리는 오솔록에서 숙소로 오는 길목에 있는 '운정이네 식당에 들렸다. 아주 깨끗하고 바다가 창밖으로 보이는 이 식당 주인은 자기 딸 운정이가 먹는 토종 음식을 만든다고 자랑한다. 철이 아니어서 그런지 식당마다 제주 특산인 옥돔은 메뉴에 없었고, 양식한 전복과 많이 따오는 소라가 주메뉴였다, 제주도에서 먹는 소라는 그 크기가 작은 편이다. 소라는 회로도 먹지만 역시 구워서 먹는 것이 일품이다. 오설록 근처의 운정이네 식당은 정갈한 메뉴로 맛갈나는 음식을 제공했다(사진: 장원호 박사 제공). 둘째 날 계획은 세화장터를 들려서 성산포를 가서 배를 타고 우도를 돌아보는 날이다. 사실 나는 이곳을 여러 번 다녀왔지만, 우도를 가보지는 못했다. 내가 가던 때는 우도가 관광지가 되고 연락선이 생기기 전이었기 때문이다. 성산포에는 유일한 관광호텔인 '일출봉 호텔'이 일출봉 바로 밑에 있다. 이 호텔을 지은 성도경 교장 선생님은 나의 처형의 남편이시다. 한국전쟁이 휴전되고 폐허가 된 한반도에 대구에서 흙벽돌집로 건물을 지어 사립 중학교를 세우고 청년 시절부터 교장이 됐다. 그 후 여러 사립학교를 창립했으며, 지금도 경남 창원의 관광고등학교를 관리하는 이사장이다. 우리는 그 분을 늘 교장선생님이라고 부른다. 지금은 교장직에서 은퇴하고 성산포의 일출봉을 처음 다녀온 후, 은퇴인의 정열을 호텔사업에 쏟아부어 본인이 땅을 구입하고, 또 설계도 하여 호텔을 지었다. 어려운 호텔을 몇 번이고 뜯어 고폈고, 경영이 어려워 큰 아들에게 운영을 넘겼다가, 지금은 다른 분이 인수하여 호텔을 운영하고 있다. 성산포에는 유명한 세화장터가 있다. 지금은 규모가 커져서 옛날 장터의 소박함이 줄었다(사진: 장원호 박사 제공). 이 호텔이 세워지고 나서, 나는 미국에서 한국에 갈 때마다 제주의 아름다운 비경을 보려고 이곳 호텔에서 체재하면서 성산포 일대를 돌아다녀서 이 지역을 잘 안다. 특히, 세화장터는 몇 번이고 들려 장을 보기도 했다. 지금은 세화장터가 더욱 커져서 온갖 잡화와 식료품이 있지만, 이제는 소박한 옛날 장터 맛이 나지 않아서 아쉬웠다. *편집자주: 다음 주에 우도 얘기부터 계속됩니다. Tag #한담해안 #제주 삼다 #한담마을 #맨도롤 또똣 #한림공원 #손병규 #협제동굴 #중문관광단지 #오름 #이니스프리 제주하우스 #성산포 #일출봉 호텔 #세화장터 저작권자 © CIVICNEWS(시빅뉴스) 무단전재 및 재배포 금지 장원호 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 관련기사 [장원호 박사의 그리운 대한민국] 전북 고창의 고인돌박물관, 청보리밭, 그리고 선운사에서 동학운동을 생각하다 [장원호 박사의 그리운 대한민국] 고대 교수산악회 추억의 등산코스 덕유산과 무주구천동 [장원호 박사의 그리운 대한민국] 전북 순창에서 한정식과 순창 고추장 맛에 반하고, 구례 화엄사 둘러 보다 [장원호 박사의 그리운 대한민국] 진도에서 진도아리랑, 모세의 기적, 강강술래, 그리고 운림산방의 예술혼을 느끼다 [장원호 박사의 그리운 대한민국] 홍도의 절경, '흑산도 아가씨' 노래비, 그리고 '자산어보'의 정약전 사당과 유배문화공원을 둘러 보다 [장원호 박사의 그리운 대한민국] 제주도 '롯데 리조트 아트 빌라스'에서 묵으면서 사려니 숲, 산굼부리, 그리고 제주돌문화공원을 구경하다 [장원호 박사의 그리운 대한민국] 섭지코지 숲의 아름다움, 쇠소깍 호수의 경이로움, 저지오름 풍광의 향긋함, 그리고 협재해수욕장 바다의 상쾌함 [장원호 박사의 그리운 대한민국] 독자 여러분 감사합니다...우도 여행을 끝으로 '그리운 대한민국' 여행기 연재 마칩니다 [카드뉴스] 해외여행・출장도 가능해지는 '백신 여권'…가까워지는 코로나 이전의 일상 [박창희 칼럼] 경이로운 한라산, 말라버린 백록담 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 많이 본 뉴스 1미국 MLB 올스타팀 내한 경기 확정...오는 11월 11, 12일 이틀간 ‘MLB 월드투어 코리아시리즈 2022’ 부산에서 열린다 2전기차 수는 갈수록 느는데 고속도로 휴게소는 충전 전쟁 중 3[박기철 칼럼] 포지타노 마을이 매력적인 까닭 4tvN ‘작은 아씨들’ 화제...연출, 배우, 전개 등 흥미로운 요소 가득 5부산역서 부산세계시민축제 개최... '세계문화 체험' 기회 6‘원전으로부터 안전한 도시를!’...'더 30㎞포럼' 부산서 출범 활동 시작 7계속되는 전장연 도시철도 시위, 시민들의 공감과 신뢰 얻지 못하면 역효과 날 수도 8걸으면서 쓰레기 줍기...경성대 미컴과 학생들의 줍깅! 9바닥까지 간 대한민국 교권, 이제는 바로 잡아야 할 때 10부산이 붐! 전통이 붐! ‘2022 부산민속예술제’ 개최...부산시민공원에서 다양한 행사 진행돼 최신기사 무원칙에다 꼼수와 졸속으로 나란히 당헌 개정한 여야...한국 정당 민주주의 도대체 어디로 가려고 이러나 무원칙에다 꼼수와 졸속으로 나란히 당헌 개정한 여야...한국 정당 민주주의 도대체 어디로 가려고 이러나 성균관 차례상 표준안 발표로 한결 편안해진 지난 추석 명절… 지나친 음식 준비로 스트레스 받는 ‘명절 증후군’ 없어져야 성균관 차례상 표준안 발표로 한결 편안해진 지난 추석 명절… 지나친 음식 준비로 스트레스 받는 ‘명절 증후군’ 없어져야 나이키, 재판매 목적의 구매 행위 '리셀' 금지 조치... 리셀시장에 지각변동 올까 나이키, 재판매 목적의 구매 행위 '리셀' 금지 조치... 리셀시장에 지각변동 올까 반려동물 입양하듯 나만의 반려해변을 입양하세요 반려동물 입양하듯 나만의 반려해변을 입양하세요 [박기철 칼럼] 포지타노 마을이 매력적인 까닭 [박기철 칼럼] 포지타노 마을이 매력적인 까닭 2030세대의 돈 모으기법 ‘짠테크’ 열풍... 명절 선물세트 당근마켓에 팔고, 빈 병 모아 술값 보태기도 2030세대의 돈 모으기법 ‘짠테크’ 열풍... 명절 선물세트 당근마켓에 팔고, 빈 병 모아 술값 보태기도 글로벌 창업 축제 ‘COMEUP’ 주요 프로그램 부산에서 열려 글로벌 창업 축제 ‘COMEUP’ 주요 프로그램 부산에서 열려 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 부산광역시 남구 수영로 309 경성대학교 23호관 301호 대표전화 : 051-663-5129 팩스 : 051-663-5129 법인명 : 시빅뉴스 제호 : CIVICNEWS(시빅뉴스) 등록번호 : 부산 아 00147 등록일 : 최초등록 2013-03-15, 재등록 2016-05-09 사업자 등록번호 : 617-82-12810 대표·발행인 : 권만우 편집인 : 권만우 편집국장 : 송문석 논설주간 : 박창희 CIVICNEWS(시빅뉴스) 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받은 바, 무단 전재와 복사 및 배포 등을 금합니다.CIVICNEWS(시빅뉴스)는 사단법인 인터넷신문위원회의 기사 및 광고 부문 자율규약을 준수합니다. Copyright © 2022 CIVICNEWS(시빅뉴스). All rights reserved. mail to civic_news@naver.com 위로</t>
+    <t>제주도, 관광객 2명 추가 감염…올 들어 100명째 확진 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 관광객 2명 추가 감염…올 들어 100명째 확진 파이낸셜뉴스입력 2021.01.30 11:30수정 2021.01.30 11:30 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 30일 누적 확진자 521명…둘 다 가족 1차 역학조사…접촉자 7명 파악 격리 30일 코로나19 확진자 지역별 현황 [뉴스1] [제주=좌승훈 기자] 제주도는 29일 하루 동안 총 544명에 대한 코로나19 진단 검사가 이뤄진 가운데 2명(제주 520·521번) 감염자가 추가로 나왔다고 밝혔다. 이에 따라 누적 확진자는 521명으로 늘었다. 올해 들어서는 100명째다. 30일 오전 11시까지 추가 확진자는 없다. 신규 확진 판정을 받은 2명은 모두 관광을 목적으로 제주를 찾은 수도권 입도객으로 파악됐다. 방역당국은 제주 520·521번 확진자의 감염 경로에 대한 역학조사를 진행 중이다. 두 확진자는 가족으로 지난 27일 오후 3시쯤 김포발 제주행 항공기를 타고 제주에 왔다. 520번은 기침·가래·후각소실 증상이, 521번은 두통 증상이 나타나 지난 29일 오후 1시40분쯤 서귀포시 서부보건소를 방문해 코로나19 검사를 받았으며, 이날 오후 5시50분쯤 양성 판정을 받았다. 두 확진자는 모두 서귀포의료원 음압병상으로 이송돼 치료를 받고 있다. 방역당국은 두 확진자의 추가 진술을 확보하고 신용카드 사용내역, 현장 CCTV 분석을 통해 세부 동선과 접촉자를 조사하고 있다. 30일 오전 11시를 기준으로 현재까지 파악된 접촉자는 총 7명으로 조사됐으며, 이중 5명은 타·시도로 이관 조치를 하고, 2명은 제주지역에서 격리를 하고 있다. 한편 29일 제주도내에서는 코로나19 환자 5명이 퇴원해 현재 격리 중인 확진자는 총 21명, 격리 해제자는 500명(이관 1명 포함)으로 집계됐다. 자가격리자는 313명(접촉자 105명·해외입국 208명)이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, ‘설 이후’ 관광·대중교통 종사자 코로나19 전수검사 한다 : 제주 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [단독] 감사원, 국민감사본부 만들어 한 일이 ‘KBS 감사’ 뿐 [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 ‘문자 내통’ 유병호 “송구스럽지만, 그 소통은 정상적인 것” 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야”서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 ‘일제고사’ 부활 선언…윤 대통령 “원하는 모든 학교 참여” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 인류가 가장 가까이서 본 유로파, 뒤얽힌 얼음 능선 너머엔… ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국제주 제주도, ‘설 이후’ 관광·대중교통 종사자 코로나19 전수검사 한다 등록 :2021-01-28 15:53수정 :2021-01-28 16:02 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 연휴 기간 많은 귀성객·관광객 방문 예상 제주도청. 다음 달 설 연휴(11~14일) 이후 제주도내 관광업계와 대중교통 종사자를 대상으로 코로나19 전수검사가 이뤄진다. 제주도는 설 연휴 기간 귀성객은 물론 관광객들이 많이 찾을 것으로 보고 제주형 방역대책의 하나로 코로나19 진단검사 범위를 확대하기로 했다고 28일 밝혔다. 이에 따라 설 연휴 이후 관광객들이 이용하는 다중이용시설, 관광지, 렌터카, 대중교통 등의 종사자들을 대상으로 진단검사를 추진할 계획이다. 임태봉 도 재난안전대책본부 통제관은 “제주지역에 나흘 연속 코로나19 신규 확진자가 없다. 상대적으로 다른 지역에 견줘 괜찮다는 생각으로 제주도 여행을 계획하는 사람들이 늘어날 것으로 예상한다. 관광객이 급증할 경우에 대비해 직종별 고위험군을 대상으로 한 전수검사 계획을 갖고 있다”고 말했다. 이에 따라 도는 제주를 찾는 관광객과 접촉할 가능성이 큰 대중교통 운전기사와 렌터카 업계, 관광시설 종사자 등을 대상으로 설 연휴가 끝나면 코로나19 진단검사를 할 방침이다. 또 의심 증상이 있는 관광객은 제주공항 선별진료소에서 검사를 받도록 적극적으로 유도하고 결과가 나올 때까지 공항 내에 머물도록 하고, 전자출입명부인 ‘제주안심코드’를 관광객들에게 설치를 유도할 계획이다. 허호준 기자 hojoon@hani.co.kr 이슈코로나19 세계 대유행 ‘코로나 영웅’서 ‘비효율 주범’으로 전락한 공공의료기관 간호사 “12월~3월 사이 코로나 재유행”…새로운 변이도 국내 유입 중국 방역 완화?…탁구대회 이어 다음달 3만명 베이징마라톤 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 3. 김진태 등에 업은 ‘학업성취도평가’…“학원에 선물 주는 것” 4. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 5. “토건 집착, 공공의료 뒷전” 대구 시민단체의 홍준표 100일 비판 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>제주도 “설 연휴 이후 관광업계 종사자 전수검사 계획” :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도 “설 연휴 이후 관광업계 종사자 전수검사 계획” 등록 2021.01.27 12:13:55 작게 크게 “설 연휴 중 제주 여행 예상돼” [제주=뉴시스]우장호 기자 = 제주 지역에 강추위 기승을 부리고 있는 7일 제주시보건소 내 주차장 한 켠에 마련된 코로나19 선별진료소에서 의료진들이 검체 채취를 하고 있다. 2021.01.07. woo1223@newsis.com[제주=뉴시스] 강경태 기자 = 설 연휴기간 제주에 많은 관광객이 올 것으로 예상되면서 밀접접촉이 이뤄질 수 있는 직종별로 전수검사를 추진한다. 임태봉 제주도 재난안전대책본부 통제관은 27일 오전 제주도 신종 코로나바이러스 감염증(코로나19) 브리핑을 통해 “국민이 최근 도내 확진자 수가 0명을 유지하고 있다는 것을 알고 있어 사회적 거리두기가 완화될 경우 여행을 목적으로 제주에 오려는 계획들이 감지되고 있다”면서 “현재 대비책으로 관광객 접촉이 많은 다중이용시설 종사자에 대한 진단검사를 계획하고 있다”고 밝혔다. 임태봉 통제관은 “관광객이 주로 가는 관광지나 전세버스, 렌터카 업체 등의 종사자를 대상으로 설 연휴가 끝나는 즉시 전수검사 계획을 마련했다”며 “특히 직종별로 고위험군을 대상으로 전수검사를 계획을 갖고 있다”고 설명했다. 설 연휴기간 방역 대책에 대해서는 “정부가 설 연휴 방역대책 발표를 예정하고 있는데 연휴기간 핀셋 방역대책을 마련하거나, 큰 흐름으로 (연휴 이후까지) 강화된 방역대책을 다시 가동할 수도 있다”라면서 “우리 도는 다양한 수를 놓고 대비책을 마련해 정부안에 맞춰서 준비하고 있다”고 말했다. 그러면서 “설 연휴 이후에도 사회적 거리두기가 지금보다 강화되거나 완화하는 부분을 걱정하고 있는 것 같다”면서 “도내 경제지표나 확진자 추이 등을 다각도로 검토하고 있어 조금만 기다려주면 발표하겠다”고 덧붙였다. 한편 제주도는 이날 방역부문 7대 핵심중점 추진과제를 발표하며 코로나19 진단검사 확대를 강조했다. 추진안에 따르면 감염병 취약순위를 1~3단계로 나눠 집단감염이 우려되는 시설과 고위험군(1단계)을 최우선으로 전수검사를 추진한다. 이어 육지부 방문자나 취약계층 등 중위험군(2단계), 도내·외 상황 고려 검사희망 전 도민(3단계) 등으로 단계를 나눠 진단검사 지원을 확대한다. ◎공감언론 뉴시스 ktk2807@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 설 연휴 이후 관광업종 종사자 '핀셋' 진단검사 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 설 연휴 이후 관광업종 종사자 '핀셋' 진단검사 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 설 연휴 이후 관광업종 종사자 '핀셋' 진단검사 송고시간2021-01-27 11:59 요약 beta 닫기 제주도가 다음 달 설 연휴(11∼14일) 이후 관광업종 및 대중교통 종사자에 대한 진단검사가 실시된다. 제주도는 27일 재난안전대책본부 출범 1년을 맞아 연 중점 정책 발표 온라인 브리핑에서 설 연휴 도 단위의 방역 강화 대책으로 선별 진단검사 등을 추진하기로 했다고 밝혔다. 설 연휴 이후 관광객들이 다녀간 관광업장 및 대중교통 종사자들을 대상으로 감염병 취약 순서를 정해 진단검사를 적극적으로 추진한다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 감염병 위험 순위 따라 선별 검사·입도 절차 고도화…공항진료소 운영 강화 (제주=연합뉴스) 고성식 기자 = 제주도가 다음 달 설 연휴(11∼14일) 이후 관광·교통 업종 종사자에 대한 신종 코로나바이러스(코로나19) 진단검사를 실시한다. 추캉스 시작 제주도 '긴장' (제주=연합뉴스) 2020년 9월 28일 제주국제공항 도착장에서 제주도 방역 관계자와 공항 관계자들이 열화상 카메라를 이용해 승객 발열 검사를 진행하고 있다. [연합뉴스 자료사진] 또 제주를 방문한 의심 증상자들은 모두 제주국제공항 내 진료소에서 진단검사를 받도록 유도할 계획이다. 제주도는 27일 재난안전대책본부 출범 1년을 맞아 연 중점 정책 발표 온라인 브리핑에서 설 연휴 도 단위의 방역 강화 대책으로 선별 진단검사 등을 추진하기로 했다고 밝혔다. 광고 도는 우선 감염병 위험 순위에 따른 단계별 신종 코로나바이러스 감염증(코로나19) 진단검사를 확대하기로 했다. 이에 따라 설 연휴 이후 관광객들이 다녀간 관광업장 및 대중교통 종사자들을 대상으로 감염병 취약 순서를 정해 진단검사를 적극적으로 추진한다. 검사 대상에는 다른 지역 방문 제주도민과 도내·외 상황을 고려해 검사를 희망한 도민들도 포함한다. 이와 함께 도는 '제주형 특별 입도 절차'를 고도화해 의심 증상이 있는 관광객은 제주공항 선별 진료소에서 검사를 받도록 적극적으로 유도하고 결과가 나올 때까지 공항 내에 머물도록 할 계획이다. 도는 지난해 3월 제주공항과 제주항에 선별 진료소를 마련해 국외 체류객, 외국 유학생, 발열자 등을 대상으로 진단검사를 해왔다. 제주공항 및 제주항 선별 진료소는 설치 후 그간 바이러스가 지역사회 전파되는 것을 선제적으로 예방하는 등 방역에 성과가 있는 것으로 평가받고 있다. '황금연휴' 제주 돌하르방도 마스크 [연합뉴스 자료 사진] 도는 또 항공기 내나 혹은 공항 내에서 안내를 통해 관광객들이 방문 이력 기록 애플리케이션인 '안심코드'를 스마트폰에 설치하도록 유도할 계획이다. 도는 도가 안심코드를 관리하고 있어 안전하며 또 역학 조사를 이른 시간에 완료하는 데 도움이 되고 있다고 설명했다. 임태봉 도 통제관(보건복지여성국장)은 "설 연휴가 끝나면 관광업종 및 대중교통 종사자들에 대해 즉시 검사를 하는 등 직종마다 전수검사 체계를 마련하겠다"고 말했다. 임 통제관은 또 "제주공항과 제주항 선별 진료소가 바이러스가 지역사회로 유입되지 않도록 막는 효과가 있다"면서 "설 연휴를 비롯해 앞으로 역할을 고도화하는 방안을 추진하겠다"고 말했다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/01/27 11:59 송고 #관광 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>작년 제주도 관광 소비액 보니...전세버스만 1년 내 몸살 &lt; 관광청·관광공사·관광재단 &lt; 관광정책 &lt; 기사본문 - 여행신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 12:01 (화) 트래비매거진 전체메뉴 버튼 여행BIZ 여행사 항공사·공항·GDS 랜드사 호텔·리조트·숙소 크루즈·선사 OTA·여행플랫폼 레일·렌터카·버스 MICE 테마파크·유원시설 쇼핑·면세·카지노·보험 기타 관광정책 정부·지자체 관광청·관광공사·관광재단 협회·단체 학계·연구소 기타 기획·연재 커버스토리 스토리 포럼·세미나·트래블마트 특집 연재 피플·오피니언 인터뷰 기자수첩 칼럼·기고 취재 후 여행인 주간행사 브리핑 통계·리포트 설문조사 항공 통계 출입국 통계 여행사실적 통계 관광사업체 통계 마케팅 리포트 동향·트렌드 지면보기 구독신청 광고문의 facebook mobile rss e-mail 검색버튼 기사검색 검색 본문영역 epaper 지면보기 랜드명부 지면보기 뉴스레터 신청하기 현재위치 홈 관광정책 관광청·관광공사·관광재단 작년 제주도 관광 소비액 보니...전세버스만 1년 내 몸살 이전 기사보기 다음 기사보기 기자명 손고은 기자 입력 2021.01.29 06:00 댓글 0 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 다른 공유 찾기 바로가기 복사하기 본문 글씨 키우기 본문 글씨 줄이기 렌터카‧특급호텔은 코로나 유행 따라 오르락내리락 내국인 11월 소비액 28%↑, 인바운드 시장은 꽁꽁 지난해 제주도 여행시장에서 단체관광 업종이 가장 큰 타격을 입은 것으로 나타났다. 제주특별자치도와 제주관광공사가 2020년 신용카드 매출자료 데이터를 분석한 결과 단체관광객을 주요 타깃으로 삼았던 1급호텔, 관광여행사, 전세버스 업종은 2020년 내내 내리막길을 걸은 것으로 나타났다. 반면 특급호텔이나 렌터카, 콘도미니엄 등 개별여행객이 주로 이용하는 업종의 매출액은 코로나19 유행 상황에 따라 롤러코스터를 탔다. 출처=제주관광공사 제주도 내 관광업계는 업종별로 희비가 엇갈렸다. 지난해 3월 전년동기대비 41%까지 매출이 하락했던 렌터카 부문은 11월 77% 상승했다. 다만 코로나19 3차 유행과 함께 12월에는 44% 급감했다. 특급호텔과 콘도미니엄, 모텔/여관, 2급호텔은 2019년과 비슷한 매출을 이어오다 11월 반짝 상승한 이후 12월 마이너스로 전환했다. 가장 큰 타격은 1급호텔과 관광여행사, 전세버스 부문이다. 해당 부문 매출액은 코로나19 이후 단 한 번도 전년동기대비 상승하지 못한 채 마감됐다. 코로나19로 단체관광과 개별여행의 온도차가 크게 더 벌어진 셈이다. 출처=제주관광공사 제주 지역 관광객 소비액은 지난해 코로나19 1차 유행이 정점을 찍은 4월을 기점으로 2019년 대비 46% 하락한 이후 5월부터 회복세를 나타내며 11월에는 +19%까지 올랐다. 하지만 12월 코로나19 재확산으로 26% 급감한 것으로 집계됐다. 내국인 관광객 소비액을 살펴보면 지난해 4월이 -39%로 가장 크게 위축됐고, 11월 +28%로 늘었다가 다시 12월 21% 감소했다. 외국인 관광객은 무비자 제도 중단, 해외여행 규제 등의 여파로 지난해 4월 -90%를 기록한 후 거의 이렇다 한 회복하지 못한 채 한해를 넘겼다. 손고은 기자 koeun@traveltimes.co.kr 손고은 기자 koeun@traveltimes.co.kr 기자의 다른기사 키워드 #제주도 #제주관광공사 #제주여행 저작권자 © 여행신문 무단전재 및 재배포 금지 이 시각 추천뉴스 일본 자유여행 10월 시작? 기대감에 여행시장 '들썩' 일본, 무비자 자유여행 곧 가능해지나? 제로 코로나 포기하고 국경개방하나, 중국·타이완 여행 재개 '꿈틀' 한국인 최대 여행지 일본의 귀환…해외여행 본격 회복 기점될까 일본·타이완 무비자 입국 재개…인기 여행지 귀환에 열기 '후끈' 정원 따라가다 만난 가을, 10월 가볼 만한 곳 6 양양의 보물 송이버섯 찾으러 2022 양양송이축제로 오세요 일본 자유여행 10월 시작? 기대감에 여행시장 '들썩' 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 고유가·고환율에 신음하는 항공사, 동계 시즌 일단 일본 노선에 집중 무비자 날개 단 일본여행…현지 상황은? 일본‧호주 항공권…이렇게 비쌌나? 리오프닝 여행지 항공권 '금값' 코로나 이후 첫 개방에도 타이완 여행 '일단 주시' 3년 만에 돌아온 규슈 관광설명회 “한국은 중요한 시장” 한국인 최대 여행지 일본의 귀환…해외여행 본격 회복 기점될까 최신뉴스 고유가·고환율에 신음하는 항공사, 동계 시즌 일단 일본 노선에 집중 여행신문 2,000호 축하와 당부⑤ 무비자 날개 단 일본여행…현지 상황은? [Interview] 규슈관광기구 니시다 요스케(Nishida Yosuke) 해외유치부 부장｜“한국시장 최우선으로 외래객 코로나 이전 수준 회복 목표” 일본‧호주 항공권…이렇게 비쌌나? 리오프닝 여행지 항공권 '금값' 포토뉴스 고유가·고환율에 신음하는 항공사, 동계 시즌 일단 일본 노선에 집중 여행신문 2,000호 축하와 당부⑤ 무비자 날개 단 일본여행…현지 상황은? [Interview] 규슈관광기구 니시다 요스케(Nishida Yosuke) 해외유치부 부장｜“한국시장 최우선으로 외래객 코로나 이전 수준 회복 목표” 일본‧호주 항공권…이렇게 비쌌나? 리오프닝 여행지 항공권 '금값' 인기뉴스 1 한국인 최대 여행지 일본의 귀환…해외여행 본격 회복 기점될까 2 정원 따라가다 만난 가을, 10월 가볼 만한 곳 6 3 양양의 보물 송이버섯 찾으러 2022 양양송이축제로 오세요 4 10월19일 전국 관광인 총궐기대회…생존 위한 마지막 목소리 5 호주, 연말까지 항공 공급 폭발…"제2의 전성기 노린다" 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 (책임자 : 전홍렬) 저작권보호정책 이메일무단수집거부 RSS 매체정보 제호 : 여행신문 법인명 : (주)여행신문 서울특별시 중구 무교로 16 (체육회관) 5층 (주)여행신문 대표전화 : 02-757-8980 팩스 : 02-757-8983 등록번호 : 서울중구0877호 법인명 : (주)여행신문 발행·편집인 : 한정훈 대표자명 : 김기남 발행일 : 1992-07-10 등록일 : 1992-05-21 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. 여행신문은 인터넷신문위원회 윤리강령을 준수합니다. Copyright © 2022 여행신문. All rights reserved. mail to tktt@traveltimes.co.kr 위로 전체메뉴 전체기사 여행BIZ 전체 여행사 항공사·공항·GDS 랜드사 호텔·리조트·숙소 크루즈·선사 OTA·여행플랫폼 레일·렌터카·버스 MICE 테마파크·유원시설 쇼핑·면세·카지노·보험 기타 관광정책 전체 정부·지자체 관광청·관광공사·관광재단 협회·단체 학계·연구소 기타 기획·연재 전체 커버스토리 스토리 포럼·세미나·트래블마트 특집 연재 피플·오피니언 전체 인터뷰 기자수첩 칼럼·기고 취재 후 여행인 주간행사 브리핑 통계·리포트 전체 설문조사 항공 통계 출입국 통계 여행사실적 통계 관광사업체 통계 마케팅 리포트 동향·트렌드 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>㈜제주클린마스크, 제주도관광협회에 마스크 1만매 기증 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 ㈜제주클린마스크, 제주도관광협회에 마스크 1만매 기증 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 ㈜제주클린마스크, 제주도관광협회에 마스크 1만매 기증 김재연 기자 headlinejeju@headlinejeju.co.kr 승인 2021.01.28 15:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ㈜제주클린마스크는 28일 제주특별자치도관광협회에 클린관광제주 조성을 위한 마스크 1만매를 기증했다. 이날 기증식에는 부동석 제주도관광협회 회장, 유정민 ㈜제주클린마스크 대표, 업체 홍보 모델인 가수 임창정 등 관계자들이 참석했다. ㈜제주클린마스크는 공정시설 및 유통까지 제주에서 직접 제작·생산하고 있다. 특히, 마스크에 돌하방 이미지를 삽입해 제주의 특징을 표현하고 있으며, 미국FDA 등록 및 식품의약품안전처 인증을 취득한 업체다. 부동석 회장은 "코로나19로 인해 강화된 사회적 거리두기와 방역강화로 어려워진 관광사업체와의 상생과 클린관광제주 조성을 위해 힘써주는 유정민 대표 및 관계자들에게 감사드린다"고 말했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 김재연 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>한라그룹, 카카오VX와 제주도 관광단지 개발한다 - 뉴스웨이 기업·경영 금융·증권 정치·경제 부동산 오피니언 ESG경영 기획·이슈 리포트 스토리 검색어 X 검색 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 bar_progress 한라그룹, 카카오VX와 제주도 관광단지 개발한다 검색 닫기 X 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 한라그룹, 카카오VX와 제주도 관광단지 개발한다 이수정 기자 등록 2021.01.24 20:41 카카오VX·스톤브릿지자산운용과 제주 묘산봉관광단지 투자 한라그룹이 카카오게임즈의 골프 서비스 전문 자회사인 카카오VX와 손잡고 제주도 관광단지 개발에 나선다. 24일 업계에 따르면 한라홀딩스는 최근 카카오VX와 스톤브릿지자산운용을 제주 묘산봉관광단지 투자 유치를 위한 1단계 사업 파트너로 선정했다. 한라그룹은 투자 유치를 통해 이르면 2025년까지 관광단지 개발을 완료하겠다는 계획이다. 1단계 사업은 골프장(세인트포CC)과 부대시설을 한 단계 업그레이드하는 데 집중하고, 2단계 사업은 나머지 부지에 본격적으로 관광단지를 조성하는 사업이 될 것으로 알려졌다. 한라그룹 관계자는 "아직 사업의 세부적인 내용과 2단계 사업 파트너 등은 정해지지 않은 상태"라고 말했다. 이수정 기자 crystal@ 관련태그 #카카오VX #한라그룹 #스톤브릿지자산운용 #묘산봉관광단지 &lt;저작권자 © 온라인 경제미디어 뉴스웨이 · 무단 전재 및 재배포 금지&gt; 주요뉴스 퇴출 심판대 서는 신라젠···"개선과제 모두 완료했다" 김은지 대표 "전자담배 '글로' 2배 성장"···BAT로스만스, ESG·위해저감 강조 강달러 독주에···日로 발길 돌린 해외직구족 삼성·LGD, 3분기 애플로 희비 갈렸다 BAT로스만스 "'글로' 완전 전환 시 연초 대비 위해저감 효과" 지배구조 더보기 동원산업·동원엔터프라이즈, 오늘 주총서 합병안 가결 ESG경영 더보기 추락하는 허연수號···GS리테일, '동반성장 최우수' 타이틀도 잃었다 실종아동찾기 뉴스웨이가 함께합니다. 이경미(여, 당시 만4세) 실종일자 : 1977/04/01 실종지역 : 부산광역시 연제구 카드뉴스+ 더보기 '과다 흡연, 연골 파괴, 여장까지···' 군대 안 가려고 이런 짓을? 뉴스웨이TV 더보기 'BBC 尹 풍자 영상' 튼 김경협 "한국 칭찬으로 보이나?" 박진 "영국 공식 입장은 달라" 회사소개 개인정보처리방침 이메일무단수집거부 청소년보호정책 윤리강령 고충처리 인재채용 전체 서비스보기 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 (주)뉴스웨이 서울특별시 용산구 한강대로 308, 7층 (갈월동, 한국정보통신공사협회) 등록번호 : 서울, 아00528 등록일자 : 2008.03.10 발행일자 : 2008.03.10 제호 : 뉴스웨이 회장 : 김종현 발행인 · 편집인 : 강 혁 편집국장 : 황의신 청소년보호책임자 : 안 민 Tel : 02. 799. 9700 Fax : 02. 799. 9724 mail to webmaster@newsway.co.kr 뉴스웨이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다.Copyright © Newsway. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 고사위기 관광업계 2000억원 융자지원 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 고사위기 관광업계 2000억원 융자지원 25일부터 접수 시작…1년 상환유예 병행 (제주=뉴스1) 강승남 기자					| 2021-01-21 14:36 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도는 2021년 상반기 제주관광진흥기금 특별융자 계획을 제주도청 홈페이지에 공고하고, 이달 25일부터 내달 26일까지 접수한다고 21일 밝혔다..제주도청 전경.(제주도 제공)© News1 제주도가 코로나19 장기화와 사회적 거리두기 강화로 어려움을 겪는 관광사업체에 2000억원 규모의 특별융자를 지원한다.제주도는 2021년 상반기 제주관광진흥기금 특별융자 계획을 제주도청 홈페이지에 공고하고, 이달 25일부터 내달 26일까지 접수한다고 21일 밝혔다.제주도는 우선 여행업계, 관광숙박업 등의 경영난 해소를 위해 경영안정자금 1800억원을 융자지원한다. 또 시설 개·보수 자금에 200억원을 배정했다.지원은 융자추천액 대출 실행에 따른 이자차액을 보전해 주는 방식으로 이뤄진다.대출 금리는 올해 1분기 기준으로 개인 등 중소기업은 0.51%, 대기업은 1.26%의 금리가 적용될 예정이다.융자 기간은 2년 거치 3년 균등 상환 조건이다.제주도는 연초 자금 수요 신청이 몰릴 것에 대비해 지난해 보다 한 달 빠른 이달 25일부터 접수를 시작하기로 했다.제주도는 지난해에는 전년도 매출액 범위 내에서 융자 추천금액을 결정했지만, 올해에는 코로나19로 인한 매출감소 상황 등을 고려해 최근 3년간 평균 매출 비용의 범위 내에서 지원을 받을 수 있도록 했다.신규 융자 지원과 함께 상환유예도 이뤄진다.2017년 이후부터 2020년 제주관광진흥기금 융자지원자 중 △융자조건이 1년 거치 3년 분할상환으로 융자받은 업체 △상환유예를 1회도 안 받았거나 1년 이하로 받은 업체가 대상이 된다.기존 1년 초과 상환 유예를 받은 업체들은 이번 지원에서 제외된다.거치기간 중인 경우에는 기간이 1년 더 연장되며 원금 상환중일 경우는 원금상환이 중단되고 거치기간 1년 후 원금상환 하게 된다.상환유예 대상자는 융자 취급 은행에서 개별적으로 통보할 예정이다.신청·접수는 제주웰컴센터 내에 설치된 관광진흥기금 특별지원센터에서 하면 된다. 한편 제주도는 지난해 관광업계의 코로나19 위기 극복을 위해 4770억원 규모로특별융자 지원한 바 있다 ksn@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 "연하 남편·여직원, 시댁서 동거…시모는 며느리 대접" 선우은숙 "만난지 석달…유영재 '나 믿고 함께하자' 말에 결혼" 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" '음주운전' 신혜성, 측정 거부해 체포 "죄송…차량 절도는 아냐" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>`바글바글` 제주도 옛말?…유명 관광지 대신 소도시 향하는 여행객들 - 매일신문 2022-10-11 (화) 지면보기 기사제보 로그인 회원가입 최신기사 오피니언 정치 경제 사회 국제 문화 스포츠 연예 라이프 포토·영상 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 '바글바글' 제주도 옛말?…유명 관광지 대신 소도시 향하는 여행객들 구민수 기자 msg@imaeil.com 매일신문 입력 2021-01-21 14:08:25 수정 2021-01-21 14:28:33 0 가 가 페이스북 트위터 카카오스토리 밴드 네이버블로그 카카오톡 라인 URL복사 BC카드 여행 관련 사용액 종로 95%·제주 58% 급감코로나19 영향…여행 대신 '카페 방문·쇼핑 활동' 증가 게티이미지뱅크 코로나19 사태로 국내 유명 관광지보다 상대적으로 한적한 소도시가 여행객의 주목을 받은 것으로 나타났다.21일 한국관광공사가 지난해 BC카드 사용액 자료를 토대로 작성한 '빅데이터 활용 관광 트렌드 분석' 보고서에 따르면 지난해 유명 관광지가 밀집한 지역의 여행업 분야 신용카드 사용액은 일제히 감소했다.경복궁·익선동·광화문 광장 등 관광지가 밀집한 서울 종로구에서 여행업 신용카드 사용액은 16억 원으로 2019년보다 95% 급감했다.제주시에서는 2억7천500만 원으로 58%, 서울 용산구에서는 105만 원으로 96% 줄었다.한옥마을이 자리한 전주 완산구에서는 206만 원으로 79% 감소했다.반면, 포천시에서는 6천394만 원으로 127%, 전남 보성군에서는 3천83만 원으로 105% 증가했다. 강원 평창군에서는 4억1천359만 원으로 33% 늘었다.보고서는 "지난해 여행 산업 관련 신용카드 사용액이 전반적으로 크게 줄었지만, 일부 시·군·구에서는 오히려 증가했다"며 "유명 관광지가 아닌 소도시 여행이 증가한 데 따른 영향"이라고 분석했다.관광객이 최소 하루 이상 머물다 갈 때 지출하는 '숙박업' 분야 카드 사용액에서도 비슷한 경향이 나타났다.숙박업 분야 카드 사용액은 경남 거창군에서 841% 급증한 것을 비롯해 전남 함평군(387%), 강원 영월군(147%), 전남 진도군(127%), 경기 연천군(177%)에서도 늘었다.지난해 코로나19의 영향으로 여행 대신 카페 방문이나 쇼핑 활동이 증가했다는 조사 결과도 나왔다.2019년 8∼12월과 지난해 1∼5월 내비게이션 앱 'T-맵'의 목적지 데이터를 분석·비교했더니 쇼핑과 카페 검색량은 각각 30%, 50% 증가했다.목적지 유형별 점유율을 보면 관광 명소는 14.35%에서 13.37%로, 레저·스포츠는 10.36%에서 8.91%로 감소했다.그러나 쇼핑은 3.96%에서 6.06%로, 카페는 4.08%에서 7.23%로 늘었다. 네이버TV구독 + 유튜브구독 + 최신 기사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 많이 본 뉴스 일간 주간 월간 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 [영상] "삼성전자 입주 키이우 건물 러 미사일 폭격 피해"…우크라 정부 "폭발로 최소 8명 사망" 北미사일 발사장에 나란히 선 김정은 부부…귀막고 눈 찡긋 수서~포항 KTX 운행 연내 성사되나…원희룡 "적극 검토할 것" 새마을운동중앙회장 맡아 다시 현역으로 돌아온 곽대훈 전 의원 푸틴의 보복?…우크라 키이우 70일만 미사일 공습 "사상자 발생" [대구 시월] "더는 쌀을 구할 방법이 없다"…그해 10월은 민생고가 빚어낸 '폭풍' 구미 원룸서 40대 여성 숨진 채 발견...살해 용의자 현장서 긴급체포 경주시립미술관 예정 부지 외지고 유동인구 적어…'유령미술관' 우려 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지더보기 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" 칠곡경북대병원 간호사 퇴사 70% '입사 1년차' 구미 年 4천억 매출 기업, 화마로 '셧다운'…지역경제 타격 불가피 대구 'MBC네거리' 새명칭 선정 난항…연내에 다시 논의하기로 홍준표 시장 "대구 미래 산업 될 신수종산업 유치, 반도체 대기업과 협상 중" 등산하다 굴렀다던 아내…알고보니 남편에게 맞아 숨졌다 대구 아파트 전세값 '뚝뚝'…하락폭 비수도권 광역시 '최대' 홍준표, 尹·김건희 풍자 '윤석열차' 두고 "표현의 자유" '尹 식사하느라 英여왕 조문 못했나' 질문에 박진 외교장관, 적극 부인 못해더보기 대전 현대 프리미엄아울렛 화재…지하주차장서 전기차 폭발 추정 호텔수성 또 소송?…이번엔 주차장 갈등, 수성구청 "소송 불사" 전국 어디든 '1시간 50분대'…성주군, 6방향 사통팔달 도시로 태풍 '힌남노' 폭우, 주택 앞마당에 묻어둔 현금 항아리 깨져 "30cm 처마 값으로 45억원 내놔라니"…두류동 재개발 '공중 알박기' 논란 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 대구 수성못 주변 주상복합 취소 소송, 수성구청 최종 승소 국내 대표 방위산업체 'LIG넥스원·한화시스템' 구미에 4천억 푼다 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" 13호 태풍 므르복 日 남쪽 아닌 멀리 태평양서 발생 임박 "14호 난마돌 발생 여부 주목"더보기 이슈&amp;뉴스 美 출장은 이재명 수사 목적 주장에 한동훈 "내부 고발 하나" 민주당 "이재명 두산그룹 후원 유치, 칭찬할 일" '포항 참사' 숨진 중학생, 市보험금 못 받아 논란 초등학생 청소 밀대로 때린 교사…3천만원대 합의에도 실형 손톱 10개 합친 길이만 13m…25년째 안 자른 사연은 댓글 많은 뉴스 10 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지 5 안철수 "유승민, 당대표 출마 힘들 것…나는 尹 정부 연대보증인" 5 나경원, 이재명 겨냥 "한미일 훈련이 국방참사라니…北에 당하란 말인가" 5 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 3 "경북지역 노후 저수지 3200곳, 언제 터질지 모른다" 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 회사소개 광고안내 구독신청 고충처리인운영규정 청소년보호정책 개인정보처리방침 사업제휴 편집윤리규정 윤리자율규제지침 윤리실천요강 본사 : 대구광역시 중구 서성로20 (계산 2가 71번지) 매일신문사 (우 41933) : TEL : (053) 255-5001~7 경북본사 : 경북 안동시 풍천면 수호로 63, 3층(우 36759) : TEL : (054) 855-1700 서울지사 : 서울특별시 중구 세종대로 124 (태평로 1가 25) 한국프레스센터 1801호 (우 04520) : TEL(02) 733-0755~6 인터넷신문등록번호 : 대구,아00201 등록일자 : 2016.11.28 발행인 : 정창룡, 편집인 : 정창룡 Copyright ⓒ MAEIL, All right reserved 댓글 삭제 Close 댓글삭제</t>
+  </si>
+  <si>
+    <t>세계관광기구, 제주도 개발 '관광지 혼잡도 서비스' 소개 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 세계관광기구, 제주도 개발 '관광지 혼잡도 서비스' 소개 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 세계관광기구, 제주도 개발 '관광지 혼잡도 서비스' 소개 송고시간2021-01-13 10:56 요약 beta 닫기 관광객들이 안전하게 여행할 수 있도록 빅데이터 기술을 활용해 제주에서 개발한 관광 서비스가 신종 코로나바이러스 감염증(코로나19) 위기 극복 모범사례로 유엔 세계관광기구(UNWTO)에 소개됐다. 제주도와 제주관광공사는 최근 '실시간 관광지혼잡도분석서비스'가 UNWTO 홈페이지(www.unwto.org/node/11753)에 소개됐다고 13일 밝혔다. UNWTO는 제주의 '실시간 관광지혼잡도분석서비스'가 관광객에게 관광지 혼잡도 관련 정보를 빅데이터로 실시간 제공함으로써 코로나19 위기를 극복하는데 효과적인 시도라고 소개했다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 변지철 기자 = 관광객들이 안전하게 여행할 수 있도록 빅데이터 기술을 활용해 제주에서 개발한 관광 서비스가 신종 코로나바이러스 감염증(코로나19) 위기 극복 모범사례로 유엔 세계관광기구(UNWTO)에 소개됐다. UNWTO 홈페이지 내 '실시간 관광지혼잡도분석서비스' 소개 화면 [UNWTO 폼페이지 캡처. 재판매 및 DB 금지] 제주도와 제주관광공사는 최근 '실시간 관광지혼잡도분석서비스'가 UNWTO 홈페이지(www.unwto.org/node/11753)에 소개됐다고 13일 밝혔다. '실시간 관광지 혼잡도 분석 서비스'는 통신사(SKT)의 기지국 데이터를 활용해 도민과 관광객들의 성별, 연령별 지역 분포도를 5분 단위로 업데이트해 제공한다. 광고 관광객들은 이 서비스를 통해 실시간으로 도민과 관광객들이 많이 몰리는 곳을 확인할 수 있다. 원한다면 혼잡한 관광지를 피해 코로나19 감염 우려 등에 대한 스트레스 없이 안전하게 제주를 여행할 수 있다. UNWTO는 제주의 '실시간 관광지혼잡도분석서비스'가 관광객에게 관광지 혼잡도 관련 정보를 빅데이터로 실시간 제공함으로써 코로나19 위기를 극복하는데 효과적인 시도라고 소개했다. 제주도와 제주관광공사는 '실시간 관광지혼잡도분석서비스'를 포함한 '빅데이터 기반 제주 관광 서비스 플랫폼'을 기반으로 도민과 관광업계가 개별·비대면 관광 트렌드에 맞는 다양한 관광 비즈니스를 창출하도록 지원하고 있다. 또 개별 관광객을 위한 '관광지 추천 서비스'도 2021년 하반기에 본격 제공할 예정이다. 제주관광공사는 제주가 관광산업의 세계 표준을 선도하고, 세계적 관광지로서의 면모를 갖출 수 있도록 UNWTO와 협력할 계획이라고 했다. 고선영 제주관광공사 연구조사센터장은 "지난해 구축한 빅데이터 기반 관광서비스 플랫폼을 바탕으로 제주관광의 실태를 과학적으로 진단하고, 공유함으로써 글로벌 최고의 스마트관광을 선도할 수 있도록 지원하는 것이 목표"라며 "공사는 앞으로도 도내 관광업계 및 도민에게 도움을 줄 수 있는 실용적인 연구를 지속적으로 전개해 나갈 것"이라고 말했다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/01/13 10:56 송고 #제주 #세계관광기구 #혼잡도 서비스 #코로나19 #관광 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 관광업 구제 위해 2000억 규모 융자 지원 나서 최종편집 2022년 10월 11일 14시 52분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주도, 관광업 구제 위해 2000억 규모 융자 지원 나서 정기후원 제주도, 관광업 구제 위해 2000억 규모 융자 지원 나서 현창민 기자(=제주) | 기사입력 2021.01.22. 05:45:36 페이스북 트위터 카카오스토리 밴드 URL복사 제주도가 코로나19로 직격탄을 맞은 관광업 구제를 위해 2000억 원 규모의 2021년 상반기 제주관광진흥기금 특별융자 및 상환유예 계획을 22일 발표했다. 관광숙박업 관련 경영안정자금 1800억 원과 시설 개·보수 자금 200억 원 등 총 2000억 원을 배정해 융자추천액 대출에 따른 이자차액을 보전해 주는 방식이다. ▲.ⓒ제주특별자치도 대출 금리는 기획재정부에서 분기별로 공지하는 공공자금관리기금 융자사업 변동금리에서 0.75% 우대하는 분기별 변동 금리가 적용돼 1분기 기준 개인과 중소기업은 0.51% 대기업은 1.26%의 금리가 적용된다. 융자 기간은 2년 거치 3년 균등 상환 조건이다. 추천금액 선정은 지난해 전년도 매출액 범위 내로 제한했지만 올해는 코로나19 상황을 고려해 최근 3년간 평균 매출 비용 범위 내로 완화했다. 접수는 25일 부터다. 신규 융자 지원과 함께 상환유예도 이뤄진다. 상환유예는 2017년 이후부터 2020년 제주관광진흥기금 융자지원자 중 융자조건이 1년 거치 3년 분할상환 조건으로 대출받은 업체다. 또 상환유예를 받지 않은 업체이거나 1년 이하로 받은 업체도 지원된다. 다만, 1년을 초과해 상환 유예를 받은 업체는 제외된다. 상환유예 접수 기간은 26일까지다. 도는 “이번 관광진흥기금 융자제도는 현재 어려움을 겪고 있는 관광업계의 다양한 의견을 적극 수렴해 반영된 것”이라고 설명했다. 신청 접수는 제주웰컴센터 내에 설치된 관광진흥기금 특별지원센터로 하면 된다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주도, 관광업 구제 위해 2000억 규모 융자 지원 나서 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자 pressianjeju@gmail.com 제주취재본부 현창민 기자입니다. 최근글보기 NAVER 에서 현창민 기자 를 구독·응원해주세요 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광업계 2천억 융자…공설시장 사용료 감면 연장 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 제주도, 관광업계 2천억 융자…공설시장 사용료 감면 연장 입력 2021.01.22 (07:36) 수정 2021.01.22 (08:24) 뉴스광장(제주) 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상 고정 취소 이전기사 다음기사 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 제주도, 관광업계 2천억 융자…공설시장 사용료 감면 연장 입력 2021-01-22 07:36:14 수정2021-01-22 08:24:38 뉴스광장(제주) 뉴스광장(제주) 전체보기 기자 정보 댓글 좋아요 공유하기 제주-주요뉴스 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>[제주도청 브리핑] “코로나19 위기 관광업계 2천억 원 융자 지원” Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 이슈 ‘코로나19’ 팬데믹 [제주도청 브리핑] “코로나19 위기 관광업계 2천억 원 융자 지원” 입력 2021.01.21 (11:00) 수정 2021.01.21 (13:48) 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상 고정 취소 이전기사 다음기사 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 ▶ '코로나19 3차 대유행 특집' 바로가기http://news.kbs.co.kr/special/coronaSpecialMain.html [제주도청 브리핑] “코로나19 위기 관광업계 2천억 원 융자 지원” 입력 2021-01-21 11:00:13 수정2021-01-21 13:48:19 ▶ '코로나19 3차 대유행 특집' 바로가기http://news.kbs.co.kr/special/coronaSpecialMain.html 기자 정보 댓글 좋아요 공유하기 ‘코로나19’ 팬데믹 동영상 신규확진 1만 명대…오늘부터 개량백신 접종 시작 경기 4399명 신규 확진…하루 전보다 1766명 증가 신규 확진 1만 5,476명…사망 10명, 석달 만에 ‘최저’ 동영상 오늘부터 무비자 일본 관광…항공 등 예약 급증 더보기 제주-주요뉴스 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도의회 의원연구단체 '제주관광 미래성장포럼' 출범 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 정치 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 정치 &gt; 제주도의회 의원연구단체 '제주관광 미래성장포럼' 출범 파이낸셜뉴스입력 2021.01.12 20:55수정 2021.01.12 20:55 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 대표에 오영희 의원…융·복합 관광산업 기반 구축 나서 제주도의회 '제주관광 미래성장포럼' 참여 의원 [제주=좌승훈 기자] 제주도의회 새 의원연구 모임 ‘제주관광 미래성장포럼’이 창립됐다. 제주관광 미래성장포럼은 12일 오전 11시 창립총회를 갖고 대표에 오영희 의원(국민의힘 원내대표, 비례대표), 부대표에 양병우 의원(무소속, 서귀포시 대정읍)을 선출하고 회칙 제정과 연구사업 계획 승인 등의 안건을 만장일치로 의결했다. 제주관광 미래성장포럼은 도의회 차원에서 제주 경제의 기반산업인 관광산업을 혁신하고 새로운 부가가치 창출을 위해 미래지향적인 융·복합 관광산업 육성을 위한 정책 연구조사와 신규 정책 발굴, 법·제도적 기반 마련에 나서게 된다. 오영희 제주관광 미래성장포럼 대표 포럼에는 제안자인 오영희·양병우 의원 외에 고태순(더불어민주당, 제주시 아라동)·이경용(국민의힘, 서귀포시 서홍·대륜동)·강연호(국민의힘, 서귀포시 표선면) 의원과 김창식 교육의원(제주시 서부) 등 6명이 참여하고 있다. 오영희 대표는 "작년 한 해 코로나19의 장기화로 인해 관광산업이 가장 피해가 크다. 코로나 이후는 과거와는 완전히 달라진 새로운 세상이며, 관광산업 또한 미래지향적 새로운 혁신이 필요한 시점"이라면서 "올해부터 코로나19 이후를 대비한 관광산업의 회생과 제주관광의 미래성장 전략을 모색하기 위해 도의회 차원에서 의원들 스스로 연구하며 그 해답을 찾아 나가겠다"고 밝혔다. 양병우 부대표도 "'제주관광 미래성장포럼'은 정책토론회 위주 운영에서 탈피해 현재 어려움을 겪고 있는 현장의 목소리를 듣고, 실질적인 문제해결과 구체적인 대안 모색을 위해 발로 뛰는 현장형 의원연구단체로 이끌어나가겠다"고 말했다. 한편 이날 창립총회 이후에는 ‘제주 관광의 미래 : 웰니스투어리즘의 동향과 과제’를 주제로 (사)제주관광문화산업진흥원 김형길 원장의 기조 강연이 진행됐다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>`항공권 6900원·렌터카 10원`에도 제주도에 관광객 없다 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 '항공권 6900원·렌터카 10원'에도 제주도에 관광객 없다 지난달 관광객 -50%에 이어1월엔 70%나 급감항공권 가격 1만원선 추락…관광 명소도 한산 고득관 기자 입력 : 2021.01.12 16:08:41   수정 : 2021.01.12 16:15:59 "제주도도 5인 이상 집합금지 상태라 가족여행이 다 취소됐다. 보험료 빼고 하루 10원짜리 렌터카 특가 상품을 소셜 커머스에 올려놨는데도 차들이 나가질 않는다." 지난주 만난 제주공항 인근 렌터카업체 관계자의 말이다. 국내 신종 코로나바이러스감염증(코로나19) 확산으로 여행 수요가 줄면서 대표적인 국내 관광지인 제주도도 큰 타격을 입고 있다. 저비용 항공사들이 1만원도 안 되는 가격에 항공권을 내놓고 있고 각종 특가 상품들이 나오고 있지만 새해 들어 관광객이 3분의 1 수준까지 줄었다. 12일 제주 관광업계에 따르면 제주도를 찾는 관광객수가 줄면서 저비용항공사들에서 내주 김포발 제주행 항공권을 1만원 아래에서 내놓고 있다. 제주항공에서는 17일 김포발 제주행 항공요금이 최저 6900원에 나와있다. 평일에도 9900원이면 제주를 갈 수 있다. 진에어도 18일과 20일 5900원짜리 항공권이 나와있고 티웨이항공에서도 6900원이면 제주도를 갈 수 있다. 공항시설이용료 4000원을 포함해도 평상시 1명의 편도 가격으로, 2명이 왕복을 할 수 있는 셈이다. 하지만 새해 제주를 찾는 관광객들은 큰 폭으로 감소했다. 제주특별자치도관광협회 관광객입도현황에 따르면 지난 1일부터 10일까지 제주도를 찾은 관광객수는 총 9만8291명으로 지난해 같은 기간 42만23명에 비해 무려 76.6%나 급감했다. 코로나19 확산으로 지난 한 해 제주를 찾는 관광객수가 줄긴 했지만 이 정도까진 아니었다. 지난해 제주 관광객수는 총 1023만6104명으로 전년 대비 33.0% 줄었다. 제주여행객의 급감은 코로나19 3차 대유행에 따른 여행 자제 움직임이 인 데 따른 것으로 풀이된다. 같은 통계에서 지난해 12월 한달 간의 관광객수도 62만명으로 전년 동기 대비 51.3% 급감했다. 여행객이 3분의 1 수준으로 줄면서 관광명소들도 한산한 모습이다. 올해부터 탐방 예약제가 시행된 한라산 성판악 코스와 관음사 코스의 평일 예약자수도 정원의 절반에도 못 미치고 있다. 오는 18일부터 24일까지 하루 정원 1000명인 성판악 코스의 평균 예약률은 53.0%, 정원 500명인 관음사 코스는 34.0%를 기록하고 있다. 제주도의 한 식당 관계자는 "주말에 1시간 정도 대기 시간이 있었던 곳인데 지금은 좌석을 절반을 비우고도 점심 피크 타임에 자리가 남는다"라며 "지금 가면 자리가 있느냐는 문의전화가 간간히 오는데 자리가 있다고 대답하기가 민망할 정도로 손님이 줄었다"고 말했다. [매경닷컴 고득관 기자 kdk@mkinternet.com][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] #제주도#여행 오늘의 핫뉴스 전세대출 94%가 변동금리라는데…2030 절반차지   3시간 19분공영홈쇼핑 방송편성, 일부 업체에 집중돼   21분TSMC 창업자 "전쟁 발생시 TSMC 전부 파괴될것"   1시간 12분한전 사장 "전력도매가 1kWh 270원…사상최고"   2시간 10분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 관련뉴스 與, '친일 국방' 비판 이재명에 "친북" "반미 .. '한미일 동해훈련은 친일' 비판 이재명에…與 .. 與 "이재명 '친일'운운은 죽창가 시즌2, 본인 .. 이재명 "尹정부, 무능 숨기려 야당탄압…누구 .. 멀어지는 여야 지도부 용산 회동…국감 충돌에.. 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"내 반려견 물려 배가 보랏빛으로"…한강공원에 나타난 .. 3금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 4"크림반도 우크라 영토"라던 푸틴, 갑자기 태도 바꾼 결.. 5"엉덩이 깨물어 멍들게 했다"…동거녀 10대 딸 학대한 5.. 1김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 2선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 3‘♥남궁민’ 진아름 결혼소감 “예쁘게 행복하게 살게.. 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 3치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 4조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 5"어떤 방법이라도 찾아준다고…나를 믿어준 kt에 고마워.. 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 `항공권 6900원·렌터카 10원`에도 제주도에 관광객 없다 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>제주도 오라관광단지사업 최후 통첩 추진 갈림길 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 오라관광단지사업 최후 통첩 추진 갈림길 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 오라관광단지사업 최후 통첩 추진 갈림길 기자명 김용현 기자 입력 2021.01.18 17:13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도 사업자에 2월28일까지 사업계획 재수립 후 제출 요구 원점서 재수립 수준 내용시에만 인허가 절차 진행 강조 신화련 자본검증 소송 제기 결과 따라 오라단지도 영향 오라관광단지. (자료사진) 제주도가 오라관광단지 개발사업자에 원점에서 새로운 사업계획을 제출할 것으로 최후 통첩했다. 제주도는 최근 공문문서 등을 통해 오라관광단지 개발사업자인 JCC㈜에 2월 28일까지 사업계획 재수립에 따른 개발사업 심의 자료를 제출토록 요청했다. 제주도개발심의위윈회는 지난해 7월 오라단지 사업에 대한 심의를 통해 사업자의 투자 적격 여부, 투자계획과 재원확보의 적정성 여부, 지역과의 공존·기여도 등을 검토한 결과 지금 사업계획으로 수익성과 현실성이 없다고 판단했다. 이에 현재 사회·경제적 여건 등을 감안해 새롭게 사업계획서를 수립·제출한 후에 심의하겠다고 결정했다. 원희룡 지사 역시 지난해 11월 "제주오라관광단지 개발사업은 사업계획이 기존 사업계획과 차별화 되는 실질적인 사업계획이 되지 않는다면 도지사의 최종 승인여부 결정과정에서 승인받기 어렵다"고 밝히기도 했다. 이에 따라 도는 개발심의위 심의결과를 지난해 8월 통보했고, 6개월 정도면 오라단지 조상사업계획 재수립에 따른 심의자료 제출이 가능하다며 사업자에 2월말까지 자료제출을 요청했다. 사업자가 기한까지 새로운 사업계획서를 제출하지 않거나, 제출하더라도 기존 계획과 크게 바뀌지 않을 경우 도는 허가할 수 없다는 방침이다. 오라단지 사업이 제동이 걸린 주되 이유는 자본검증 논란과 부적격 결론 때문이다. 하지만 비슷한 내용의 법적 소송이 제기돼 향후 변수도 남았다. 신화련금수산장개발 주식회사는 이달초 제주도를 상대로 '개발사업 시행승인 효력 상실처분'을 취소해달라는 취지의 소송을 제주지법에 제기했다. 도개발심의위는 2018년 12월 자본검증 일환으로 770여억원을 공사 시작 전까지 국내 금융기관에 예치토록 조건을 걸고 최종 인허가를 결정했다. 하지만 사업자측이 조건을 이행하지 않자 도는 지난해 9월 허가를 취소했다. 신화련은 자본 검증의 경우 법적 근거가 없기에 제주도의 처분이 위법하다며 소송을 제기한 것이다. 오라단지 사업역시 자본검증 이유로 3373억원을 제주도가 지정하는 계좌에 예치하라고 요구했고, 사업자측이 이를 거부하자 사실상 부적격 판정이 내려졌다. 도개발사업심의위는 자본검증 결과 등을 토대로 사업계획을 전면 재검토하라고 결정한 상태다. 김용현 기자 noltang@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도의회 오영희 의원, 문화관광해설사 근무여건 개선을 위한 조례 개정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도의회 오영희 의원, 문화관광해설사 근무여건 개선을 위한 조례 개정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도의회 오영희 의원, 문화관광해설사 근무여건 개선을 위한 조례 개정 기자명 오형석 기자 입력 2021.01.21 00:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 오영희 의원 [시사매거진/제주] 제주특별자치도의회 문화관광체육위원회 오영희의원은 '제주특별자치도 문화관광해설사 운영 및 지원조례' 일부개정을 추진한다. 제주도에서는 2002년 한국방문의 해를 위해 문체부에서 전국적으로 해설사 양성을 추진하여, 2001년 40명을 시작으로 2021년 현재 312명이 양성되어 도내 관광지 33개소에 190여명이 활동하고 있다. 문화관광해설사들은 도내 문화관광자원을 설명해주는 역할로서 제주 관광자원의 이미지를 격상시키는데 일조해 왔다. 하지만 문화관광해설사들이 자원봉사자들로 규정되어 있다 보니 활동에 있어 근무여건 등 애로점이 많은 것이 현실이다. 이번 개정을 통해 근무 여건, 해설사 실태조사 등을 검토할 예정이다. 이와 관련 1월중 해설사들의 의견을 수렴하고, 실무부서의 의견을 받아 3월 임시회 상정을 목표로 하고 있다. 조례를 준비하는 오영희 의원은 “해설사는 제주의 얼굴의 역할을 해주고 있기 때문에 해설사들이 활동역량을 극대화 시킬수 있는 제도적개선이 필요하여 조례 개정을 진행하게 되었다”고 하였다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[인사] 경찰청·한국관광공사·제주도 등 - 세이프타임즈 × 전체기사 사회 전체 일반 사건사고 중대재해 전국 인권노동 환경 컨슈머 교육 포토영상 재난안전 전체 일반 국제 재난 소방방재 해양 ESG경영 전체 일반 경제 금융 건설부동산 교통오토 에너지 기계제조 중기벤처 유통 보안 IT전자 Health 전체 일반 보건 메디컬 식품 사람들 전체 일반 칼럼 기고 논평성명 만평 게시판 알립니다 바로잡습니다 2022.10.1114:55 (화) 로그인 회원가입 모바일웹 페이스북 트위터 인스타그램 카카오톡친구추가 RSS 기사검색 검색 전체 사회 일반 사건사고 중대재해 전국 인권노동 환경 컨슈머 교육 포토영상 재난안전 일반 국제 재난 소방방재 해양 ESG경영 일반 경제 금융 건설부동산 교통오토 에너지 기계제조 중기벤처 유통 보안 IT전자 Health 일반 보건 메디컬 식품 사람들 일반 칼럼 기고 논평성명 만평 게시판 알립니다 바로잡습니다 이전 다음 [인사] 경찰청·한국관광공사·제주도 등 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 크게보기 작게보기 HOME 사람들 게시판 [인사] 경찰청·한국관광공사·제주도 등 민경환 기자 승인 2021.01.13 15:20 댓글 0 +더보기 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × ■ 경찰청 ◇경무관 전보 ▲정보화장비정책관 이호영 ▲치안상황관리관 김종보 ▲국가수사본부 과학수사관리관 유재성 ▲경무담당관실(국무조정실) 최원석 ▲경무담당관실(국립외교원) 김숙진 ▲경무담당관실(국가공무원인재개발원) 한창훈 ▲경찰대학 교수부장 한원호 ▲경찰대학 치안정책연구소장 정병권 ▲경찰수사연수원장 김근식 ▲서울경찰청 안보수사부장 김수영 ▲서울경찰청 생활안전부장 한형우 ▲서울경찰청 교통지도부장 김도형 ▲서울경찰청 기동단장 홍기현 ▲서울경찰청 서울송파경찰서장 김소년 ▲부산경찰청 공공안전부장 박천수 ▲부산경찰청 수사부장 최익수 ▲부산경찰청 자치경찰부장 김종철 ▲대구경찰청 공공안전부장 김용종 ▲대구경찰청 수사부장 원창학 ▲대구경찰청 자치경찰부장 김병우 ▲대구경찰청 대구성서경찰서장 정태진 ▲인천경찰청 공공안전부장 서범규 ▲인천경찰청 수사부장 최주원 ▲인천경찰청 인천국제공항경찰단장 손장목 ▲인천경찰청 인천남동경찰서장 윤시승 ▲광주경찰청 수사부장 박정보 ▲광주경찰청 자치경찰부장 김영근 ▲광주경찰청 광주광산경찰서장 김광남 ▲대전경찰청 공공안전부장 유윤종 ▲대전경찰청 수사부장 정지천 ▲대전경찰청 자치경찰부장 이상수 ▲울산경찰청 수사부장 김한수 ▲울산경찰청 자치경찰부장 이준형 ▲경기남부경찰청 경무부장 김순호 ▲경기남부경찰청 수사부장 송병일 ▲경기남부경찰청 자치경찰부장 조지호 ▲경기남부경찰청 수원남부경찰서장 오상택 ▲경기남부경찰청 분당경찰서장 연정훈 ▲경기남부경찰청 부천원미경찰서장 엄성규 ▲경기북부경찰청 공공안전부장 이광석 ▲경기북부경찰청 수사부장 곽순기 ▲경기북부경찰청 자치경찰부장 오문교 ▲강원경찰청 공공안전부장 설광섭 ▲강원경찰청 수사부장 김광식 ▲강원경찰청 자치경찰부장 김희중 ▲충북경찰청 공공안전부장 김준영 ▲충청북경찰청 수사부장 노규호  ▲충북경찰청 자치경찰부장 이종원 ▲충북경찰청 청주흥덕경찰서장 황창선 ▲충남경찰청 공공안전부장 김홍근 ▲충남경찰청 수사부장 최기영 ▲충남경찰청 자치경찰부장 김항곤 ▲전북경찰청 수사부장 김철우 ▲전북경찰청 자치경찰부장 조병노 ▲전북경찰청 전주완산경찰서장 김주원 ▲전남경찰청 공공안전부장 박헌수 ▲전남경찰청 수사부장 나원오 ▲전남경찰청 자치경찰부장 이재영 ▲경북경찰청 공공안전부장 김원태 ▲경북경찰청 수사부장 송준섭 ▲경북경찰청 자치경찰부장 정상진 ▲경남경찰청 공공안전부장 윤영진 ▲경남경찰청 수사부장 김성종 ▲경남경찰청 자치경찰부장 김흥진 ▲경남경찰청 창원중부경찰서장 김수환 ▲경찰청 경무담당관실 안종익 ▲경찰청 경무담당관실 이의신 ▲경찰청 경무담당관실 박세호 ■ 경기 수원시 ◇4급 전보 ▲도서관사업소장 심언형 ■ 경기 고양시 ◇3급 승진 ▲덕양구청장 김운영 ◇5급 전보 &lt;시청&gt; ▲청년담당관 안진희 ▲도시브랜드담당관 남기준 ▲법무담당관 김선정 ▲주민자치과장 한창익 ▲징수과장 김덕수 ▲회계과장 김규진 ▲재산관리과장 백용구 ▲소상공인지원과장 김동원 ▲찾아가는복지과장 유선준 ▲ 장애인복지과장 조영자 ▲아동청소년과장 정은숙 ▲평생교육과장 전종학 ▲문화예술과장 정준배 ▲관광과장 이승재 ▲세계태권도대회추진단장 김동원 ▲신청사건립단장 김종선 ▲녹색도시담당관 정달용 ▲도시계획정책관 조형래 ▲도시정비과장 김기태 ▲버스정책과장 박경태 ▲주차교통과장 최호석 ▲도로정책과장 방상필 ▲시민안전과장 김종철 ▲재난대응과장 김효상 ▲주택과장 양현종 ▲토지정보과장 안종봉 ▲도시균형개발과장 이관훈 ▲기획정책관 최영수 ▲교육 이한기 ▲기후에너지과장 이용진 ▲재정비관리과장 황수연 &lt;덕양구청&gt; ▲세무1과장 명재하 ▲세무2과장 안영우 ▲산업위생과장 최병조 ▲환경녹지과장 정윤채 ▲청소농정과장 우제구 ▲안전건설과장 이동희 ▲건축과장 김진구 ▲건축물관리과장 김재용 ▲성사1동장 왕연우 ▲성사2동장 김윤정 ▲창릉동장 이병영 ▲고양동장 홍길표 ▲능곡동장 김수훈 ▲화정2동장 김현정 ▲행주동장 신영호 ▲행신3동장 장세헌 ▲화전동장 서은원 ▲대덕동장 박성완 &lt;일산동구&gt; ▲시민봉사과장 박원동 ▲세무과장 엄진섭 ▲사회복지과장 길영훈 ▲식사동장 이성우 ▲중산동장 김옥님 ▲백석2동장 이인석 ▲마두1동장 김경희 ▲마두2동장 유경옥 ▲장항2동장 한민수 &lt;일산서구&gt; ▲자치행정과장 최남영 ▲시민봉사과장 곽은경 ▲세무과장 고완수 ▲사회복지과장 이원국 ▲교통행정과장 신건국 ▲일산1동장 최숙 ▲일산2동장 백진규 ▲주엽1동장 이홍연 &lt;보건소·농업기술센터·사업소·의회&gt; ▲덕양구보건소 보건정책과장 이종신 ▲덕양구보건소 질병관리과장 이시연 ▲일산서구보건소 보건행정과장 손승희 ▲농업기술센터 농업정책과장 주시운 ▲농업기술센터 도시농업과장 정인철 ▲일산동구도서관과장 윤병열 ▲푸른도시사업소 공원관리과장 김종천 ▲상하수도사업소 수도행정과장 박성식 ▲상하수도사업소 수도시설과장 김성호 ▲의회사무국 김수오 ■ 한국관광공사 ◇상임이사 선임 ▲국민관광본부장 노점환 ■ 신한금융투자 [신임] ◇지점장 ▲계양 박진성 ◇부서장 ▲결제업무부 조경희 ■ 연구개발특구진흥재단 ▲감사부장 조용철 ■ 제주도 ◇이사관급 전보 ▲제주국제자유도시개발센터 파견 양기철 ◇부이사관급 전보 ▲특별자치제도추진단장 고종석 ▲공항확충지원단장 강동원 ▲제주시 부시장 이상헌 ◇부이사관급 승진 ▲교통항공국장 이학승 ▲강정공동체사업추진단장 오성율 ▲감사위원회 사무국장 강만관 ▲인재개발원장 현공언 ▲세계유산본부장 김대근 ▲장기교육 강승철 ▲장기교육 김애숙 ▲장기교육 변덕승 ◇서기관급 전보 ▲문화체육대외협력국장(직대) 고춘화 ▲도시건설국장(직대) 이창민 ▲ 농축산식품국장(직대) 홍충효 ▲ 해양수산국장(직대) 양홍식 ▲상하수도본부장(직대) 안우진▲특별자치법무담당관 고순심 ▲예산담당관 김인영 ▲안전정책과장 허문정 ▲도시계획재생과장 강경돈 ▲교통정책과장 김창세 ▲산림휴양과장 한정우 ▲친환경농업정책과장 한인수 ▲해양산업과장 좌임철 ▲공항확충지원단 주민소통센터장 김이택 ▲감사위원회 감사과장 장문봉 ▲인재개발원 사회교육과장 김창완 ▲한라도서관장 현희철 ▲제주컨벤션뷰로 고창덕 ▲제주감귤출하연합회 고태경 ▲제주4·3평화재단 박경수 ▲장기교육 강석찬 ▲장기교육 송은미 ◇서기관급 승진 ▲청년정책담당관 최성두 ▲평화대외협력과장 강동균 ▲체육진흥과장 김시윤 ▲투자유치과장 홍창진 ▲정보정책과장 김정찬 ▲소상공인·기업과장 고선애 ▲식품원예과장 김상엽 ▲수산정책과장 정재철 ▲의회사무처 현창훈 ▲감사위원회 심의과장 김병훈 ▲상하수도본부 하수도부장 홍동철 ▲세계유산본부 한라산국립공원관리소장 김근용 ▲설문대여성문화센터소장 강봉숙 ▲돌문화공원관리소장 좌재봉 ▲제주시 윤인성 ▲장기교육 김태성 ◇해양수산연구관 전보 ▲해양수산연구원장 고형범 ▲해양수산연구원 김문관 ▲해양수산연구원 광어연구센터장 현재민 ▲해양수산연구원 해양수산자원과장 원승환 ◇지방학예연구관 전보 ▲민속자연사박물관 민속자연사연구과장 박용범 ◇농촌지도관 전보 ▲농업기술원 기술지원국장 허종민 ▲농업기술원 기술지원조정과장 서익수 ▲농업기술원 서귀포농업기술센터소장 김창윤 ▲농업기술원 서부농업기술센터소장 고봉철 ◇농업연구관 전보 ▲농업기술원 감귤아열대과장 송인관 ■ 제주시  ◇서기관 승진 ▲자치행정국장 박순태 ▲안전교통국장 홍성균 ◇서기관 전보 ▲복지위생국장 윤인성 ◇사무관 승진 ▲자치행정과장 직무대리 서연지 ▲마을활력과장 직무대리 양경원 ▲세무과장 직무대리 오숙희 ▲관광진흥과장 직무대리 오수원 ▲체육진흥과장 직무대리 문석훈 ▲제주아트센터소장 직무대리 김영기 ▲생활환경과장 직무대리 정윤택 ▲건강증진과장 직무대리 강윤보 ▲일도1동장 직무대리 김재종 ▲화북동장 직무대리 강인규 ▲연동장 직무대리 김윤철 ▲노형동장 직무대리 한명미 ▲외도동장 직무대리 한지연 ◇사무관 전보 ▲기획예산과장 김신엽 ▲재산세과장 현상철 ▲문화예술과장 문명숙 ▲환경관리과장 부기철 ▲공원녹지과장 한정우 ▲보건행정과장 이상철 ▲서부보건소장 김계홍 ▲추자면장 김진성 ▲이호동장 김현집 ■ 서귀포시 ◇서기관 승진 ▲자치행정국장 이상헌 ▲문화관광체육국장 김희찬 ▲농수축산경제국장 강창식 ◇사무관 승진 ▲공보실장 직무대리 오철종 ▲공항확충지원과장 직무대리 조성연 ▲평생교육지원과장 직무대리 김순희 ▲서귀포예술의전당관장 직무대리 이경민 ▲예래동장 직무대리 강연실 ▲공원녹지과장 직무대리 허정환 ▲서귀포보건소 보건행정과장 직무대리 오인순 ▲서부보건소장 직무대리 고행선 ▲산림휴양관리소장 직무대리 오창익 ◇사무관 전보 ▲서귀포보건소장 직무대리 강미애 ▲종합민원실장 김용국 ▲총무과장 강용숙 ▲기획예산과장 정윤창 ▲자치행정과장 김용춘 ▲마을활력과장 정현부 ▲녹색환경과장 고철환 ▲안덕면장 김형필 ▲천지동장 허종헌 ▲중문동장 고택수 ▲위생관리과장 오문찬 ▲동부보건소장 오재복 ▲안전총괄과장 김영철 ▲건설과장 김용탁 ▲상하수도과장 양동석 ▲표선면장 오창섭 ▲관광진흥과장 윤세명 ▲관광지관리소장 김군자 ▲교통행정과장 현광철 ⓒ 세이프타임즈 Tag #경기수원시 #한국관광공사 #신한금융투자 #경기고양시 #연구개발특구진흥재단 #제주도 #제주시 #서귀포시 #경찰청 저작권자 © 누구나 안심하고 살 수 있는 세상을 만드는 언론 &lt;세이프타임즈&gt; 무단전재 및 재배포 금지 트윗하기 민경환 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기뉴스 1'둔촌주공 사태' 유발한 '공사비 뻥튀기' 3년간 1조2천억 2[오늘의 주요 일정] 국토교통위원회 국정 감사 3[오늘의 주요 일정] '회계부정·부당합병' 이재용 삼성전자 부회장 공판 4[단독] 일본 키옥시아 "플래시 메모리 생산 30% 감축" 공식 발표 5[오늘의 주요 일정] '대장동 개발 의혹' 유동규·김만배·남욱·정영학·정민용 공판 최신기사 김경만 의원 "발전5사, 일감몰아주기·내부거래 심각" 김수흥 의원, 전북지역 행안부 특교세 23억원 확보 일 시키고 경력은 미인정 … 한전, 채용형 인턴 차별 서울시, 소규모 상가 '물막이판' 지원 … 침수 피해 막는다 "농진청, 대기오염 유발 불법 소각 영농폐비닐 10만톤 방치" 코레일·현대로템 '비용 떠넘기기' 급급해 '승차감 이상' 방치 코레일, 교묘한 꼼수로 KTX와 ITX-청춘 할인석 운영했다 신문사소개 기사제보 인터넷신문윤리강령 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 성북구 종암로6길 16 (풍전빌딩) 301호 대표전화 : 02-953-0119 팩스 : 02-929-0118 청소년보호책임자 : 김소연 법인명 : (주) 세이프타임즈 제호 : 세이프타임즈 등록번호 : 서울 아 03938 등록일 : 2015-10-15 발행일 : 2015-11-09 발행인·편집인 : 김창영 제보·보도자료 : safebodo@gmail.com 세이프타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 세이프타임즈. All rights reserved. 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포시 효돈천과 하례리, 국가생태관광지역 재지정  &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포시 효돈천과 하례리, 국가생태관광지역 재지정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도 서귀포시 효돈천과 하례리, 국가생태관광지역 재지정 기자명 김영순 기자 입력 2021.01.12 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 전국 15개 지역 평가서 1위 차지 서귀포 효돈천 생태 관광을 즐기려는 수요가 급증하고 대상 지역이 확대되면서 자연생태에 관심이 높아지고 있다. 환경부 국가생태관광지인 서귀포시 ‘효돈천과 하례리’가 재지정 평가결과 전국 1위를 차지했다. 이에따라 2023년까지 3년간 재지정되는 성과를 거뒀다. 이번 평가는 환경부가 지정한 국가생태관광지역 중 지정 6년차 5개소, 지정 3년차 6개소, 개선 필요 3개소를 대상으로 실시했다. 평가 결과 14개 생태관광지역 모두 재지정 기준점수 이상을 획득했으며 그중 ‘효돈천과 하례리’는 91.3점으로 전체 평균점수 78.5를 크게 웃도는 점수를 얻었다. ‘효돈천과 하례리’는 하례리생태관광마을협의체를 중심으로 2014년 12월 생태관광지역으로 최초 지정돼 △내창트레킹 △고살리숲길 탐방 △감귤점빵 운영 △초등학생 환경프로그램 운영 등 지역주민 주도로 생태관광 프로그램을 운영하고 있다. 협의체 관계자는 “올 한해도 코로나19 영향으로 모두가 어려운 시간을 보내고 있지만,‘효돈천과 하례리’가 갖고 있는 자연생태를 직접 체험하고 느끼면서 지친 심신을 달래기를 바란다”고 말했다. 김영순 기자 kgo0325@hanmail.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 입도 관광객, 예년 4분의 1 수준으로 줄었다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 입도 관광객, 예년 4분의 1 수준으로 줄었다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 입도 관광객, 예년 4분의 1 수준으로 줄었다 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.01.15 16:48 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 1월 관광객, 작년 59만7천명→ 올해 15만명 75% 감소지역경제 전 업종 타격...'단돈 5000원 항공권' 재등장 코로나19 확산 방지를 위해 전국적으로 사회적 거리두기 방역조치가 강화된 후, 제주도를 찾는 관광객은 예년 4분의 1 수준으로 급감한 것으로 나타났다. 15일 제주특별자치도관광협회에 따르면, 올해들어 14일까지 제주도를 방문한 관광객은 총 15만 4499명으로 집계됐다. 이는 지난해 같은기간 59만 7013명이 방문했던 것과 비교하면 74.1% 줄어든 수치다. 제주 방문객이 예년 25% 수준으로 줄었다는 것이다. 하루 평균 방문객은 지난해에는 4만 643명에 달했으나, 올해에는 1만 1000명 수준으로 큰 폭 감소했다. 이러한 감소 추이는 코로나19가 1차적으로 크게 유행했던 지난해 2~5월 때 보다도 더 크게 줄어든 것이다. 제주도 입도 관광객은 코로나19가 확산되기 시작한 지난해 2월부터 4월까지 예년 절반 수준으로 감소했다가 여름 성수기를 전후해 일시적으로 회복세를 보인 바 있다. 그러다가 코로나19가 재확산된 지난해 12월부터 급속히 감소하기 시작해, 사회적 거리디가 강화된 최근에는 밑바닥 수준을 보이고 있다. 입도 관광객이 줄어들면서 여행업과 숙박업, 렌터카, 음식점 등은 다시 급속히 침체되고 있다. 항공사에서도 다시 '5000원 항공권'이 등장했다. 1만원도 안되는 돈을 주고 구입할 수 있는 항공권도 쉽게 눈에 띈다. 여기에 사회적 거리두기 밤 9시 이후 영업제한 등과 맞물려 자영업 등 대부분 업종도 타격을 받으면서 제주경제는 불황의 늪에 빠져들고 있다. 코로나19 사태가 진정되지 않는다면서 설 연휴 특수도 기대하기 어려울 것으로 전망되면서, 지역 소상공인들의 시름은 깊어만 가고 있다. 한편, 정부는 오는 16일 코로나19 방역수칙의 사회적 거리두기 단계의 조정 여부를 결정해 발표할 예정이다. 제주형 ‘2단계+α'의 거리두기가 제주도의 경우 정부의 방침을 준용하되 일부 조정하는 선에서 수위가 결정될 것으로 전망된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 위기에 처한 관광산업 재도약 705억원 투자 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 위기에 처한 관광산업 재도약 705억원 투자 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도, 위기에 처한 관광산업 재도약 705억원 투자 기자명 이승록 기자					(leerevol@naver.com) 입력 2021.01.07 16:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도는 2021년도 관광분야 정책목표를 ‘상생의 가치로 청정을 품은 안전 관광도시 제주’로 정하고 코로나19로 위기에 처한 관광산업이 재도약할 수 있는 기반을 마련하기 위한 5대 핵심전략에 705억원(일반회계 227억, 관광진흥기금 478억)을 투입한다고 7일 밝혔다.제주도는 5대 핵심전략 추진을 위해 우선 안전 관광제주 구축을 통한 관광산업 조기 회생에 190억원을 투입한다. 코로나19 위기 관광업계 지원을 위한 제주관광진흥기금 융자 예산 156억원을 편성, 1월부터 특별융자를 시행한다.영세사업체에 키오스크, 모바일 도어락 시스템 등 장비 지원과 패턴별 여행 상품 개발에 따른 상품개발비, 차량 임차료를 지원하고, 온라인 마켓‘탐나오’ 관광상품 판매 확대 및 건전 관광질서 수용태세 확립, 도내 여행사업체 등에 보증보험 지원 등 34억원을 투입한다.빅데이터 기반 관광서비스 고도화 등 스마트 관광에 4억3000만원을 투입한다.빅데이터 분석결과를 도민과 관광사업체와 공유하여 창업, 업종전환, 마케팅 등에 활용할 수 있는 시스템을 고도화 하고, 개별관광객을 위한 기후, 계절, 연령 등의 빅데이터를 기초로 관광지 추천 서비스를 본격 제공한다.관광객 혼잡도 정보 제공과 관광산업 현장에 대한 실태조사 및 모니터링 체계를 구축해 변화하는 개별 관광객 트렌드에 신속하게 대응한다.특색 있는 지역관광 육성으로 주민 소득 창출을 위한 사업에 22억원을 투입한다.주민 주도 분산형 농어촌 지역관광 상품 육성과 지역관광 역량 강화를 위한 컨설팅 및 마을관광 기획 전문가 육성을 통해 관광객 만족도를 높이는 데에도 관심을 기울인다.제주 웰니스 관광 15선 선정 등 콘텐츠 발굴 및 홍보, 지역관광 활성화를 위한 공공기관과 민간 네트워크 구축 등을 추진한다.지역특성을 반영한 권역별 관광자원 발굴 및 육성과 새로운 지역 유망 관광산업 육성을 통한 일자리 창출*도 추진한다안전하고 지속가능한 제주 MICE 환경 조성에 175억원을 투입한다.제주국제컨벤션센터 MICE 복합시설 확충 추진에 88억원, MICE 비대면 환경 변화에 따른 IT 기술 지원 등 지원제도 개선, 전시 및 특화 컨벤션, 제주유니크베뉴 등을 발굴 지원한다.스마트하고 안전한 MICE 환경 조성을 위해 포스트코로나 대응 MICE 셔틀버스 및 행사장방역 지원과 스마트 마이스 베뉴 구축 및 컨벤션센터 시설개선, 그린 MICE 산업대전 신청 여행업체 지원 및 캠페인 등 그린 뉴딜사업도 추진한다.제주관광시장에 알맞는 관광환경 맞춤형 마케팅에  104억원을 투입한다.코로나 일상 속 새로운 관광환경 맞춤형 전략적 마케팅 강화를 위해 스마트투어 관광정보 플랫폼 혁신과 소셜미디어 운영자, 유명 인플루언서 활용 제주여행콘텐츠 공모전을 운영한다.국가별 코로나19 상황 단계별로 맞춤형 마케팅도 가동해 해외수요 조기 회복을 준비해 나간다.해외시장 우위 선점을 위한 국제노선 조기복항 등 접근성 확충을 위해 트래블버블 우수방역국가 대상 온·오프라인 집중 마케팅도 준비한다.코로나19로 어려움을 겪고 있는 도내 관광업계를 지원하기 위해 단체관광객 유치 마케팅 지원 사업 등에 15억원을 지원한다.제주도는 이외에도 방문관광객 실태조사, 삼다공원야간콘서트, 관광공사  전출금 등 제주관광 경쟁력 강화에 147억원, 관광객 환대서비스 개선에 17억원, 문화관광해설사 활동 지원에 11억원을 투입할 계획이다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[신년사] 제주관광 정상화 역량 집중 / 부동석 제주도관광협회 회장 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 [신년사] 제주관광 정상화 역량 집중 / 부동석 제주도관광협회 회장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 [신년사] 제주관광 정상화 역량 집중 / 부동석 제주도관광협회 회장 기자명 부동석					(news@jejusori.net) 입력 2021.01.04 10:01 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 부동석 제주도관광협회 회장.2021년 신축년 새해가 밝았습니다. 코로나19라는 전대미문 초유의 사태를 겪으면서도 제주관광을 위해 치열한 한해를 보낸 관광인 여러분께 깊은 존경과 감사의 말씀을 드립니다. 올해에도 제주관광은 어려운 해가 이어질 것으로 예상하고 있습니다. 올해 우리 협회는 경영난을 겪고 있는 업계의 경쟁력을 회복하기 위해 체계적인 방역, 적극적인 관광객 유치 마케팅 지원을 통한 제주관광의 정상화를  최우선 목표로 삼고 모든 역량을 집중하여 사업을 추진해 나가겠습니다.먼저 관광사업체 지원확대를 통한 경영 정상화입니다. 이를 위해 개별·단체 패키지 관광객들을 대상으로 타깃별 마케팅을 지원해 나가겠습니다. 또한, 위드코로나 온오프라인 마케팅 지원을 확대하여 사업체의 경영을 정상화하는데 노력하겠습니다. 아울러 업계 보험 컨설팅 및 비용 지원을 통한 부담을 최소화 해나겠습니다. 다음으로 체계적인 방역지원을 통한 안전한 관광환경을 조성하는데 심혈을 기울이겠습니다. 이를 위해 방역물품 확대 지원을 통한 업계 방역활동을 강화해 나가고, 정기적인 현장방역 지도점검을 통한 체계적인 방역을 관리해 나가겠습니다. 또한 공항만 입도객을 대상으로 방역 캠페인 전개로 지역사회 전파 차단에 집중력을 기하겠습니다. 그 다음으로 관광 수용태세 개선을 통한 관광객 만족도 향상을 위해 더욱 분발하도록 하겠습니다. 이를 위해 관광객 접근성 확대를 위한 수용태세를 개선해 나가겠습니다. 아울러 전문적인 종합관광안내를 통한 정보접근성을 강화해 나가면서 관광객 환대서비스 개선을 통한 만족도 향상에 초점을 맞춰 나가겠습니다. 항상 우리 제주관광협회에 관심을 가지고 보내주신 변함없는 사랑과 뜨거운 성원에 진심으로 감사를 드리며, 신축년 새해에도 지속적인 관심과 성원을 부탁드립니다. 새해에는 무엇보다 건강하시고 기쁜 일들만 함께 하시길 바랍니다. 새해 복 많이 받으십시오. 부동석 news@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도내 관광지·명소 등 109곳 임시폐쇄…현장기동감찰팀 운영 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 제주도내 관광지·명소 등 109곳 임시폐쇄…현장기동감찰팀 운영 입력 2021.01.01 (10:11) 수정 2021.01.01 (10:17) 930뉴스(제주) 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상 고정 취소 이전기사 다음기사 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 [앵커] 연말연시를 맞았지만 코로나19로 여느 때와는 다른 상황입니다. 제주도가 감염 확산을 막겠다며 다음 달 3일까지 일출 명소와 관광지 등 109곳을 임시 폐쇄했는데, 일부 현장에선 제대로 지켜지지 않고 있습니다. 신익환 기자입니다. [리포트] 매년 이맘때 성산일출봉과 주요 일출 명소에서 열렸던 일출 축제는 이번엔 볼 수 없습니다. 코로나19 확산에 따른 연말연시 특별방역대책으로 도내 주요 관광지가 임시 폐쇄됐기 때문입니다. 제주도는 성산일출봉과 한라산국립공원 등 공영 관광지 11곳과 오름 34곳에 대한 출입을 제한한 데 이어, 한라수목원과 해수욕장 등 관광지 64곳도 추가로 폐쇄했습니다. 제주지역의 대표 관광지인 협재해수욕장 입구입니다. 임시 폐쇄를 알리는 현수막이 내걸렸습니다. 하지만 현장에선 통제선이나 통제하는 인원이 없는 곳도 있다보니 제대로 지켜지지 않았습니다.[관광객/음성변조 : "뭐 따로 (통제선 같은게) 처져 있는 건 없어서, 다 뚤려있던데요."] 한 해수욕장에선 폐쇄 조치에도 서핑을 하는 사람도 있었습니다. 사회적 거리두기가 2단계로 격상된 지난 18일부터 방역수칙 위반으로 제주도에서 시정조치한 사례가 20건을 넘어섰습니다. 제주도는 감염 취약지인 PC방과 키즈카페, 중점관리시설인 유흥시설과 식당, 카페 등의 방역 수칙 이행 여부를 점검하기 위해 현장기동감찰팀을 꾸렸습니다.[이중환/제주도 총괄조정관 : "방역수칙 위반 사실 발견 시에는 감염병 예방 및 관리에 관한 법률에 따라서 운영자에게는 3백만 원 이하의 벌금 또는 과태료를, 이용자에게는 십만 원 이하의 과태료를 부과할 계획입니다."] 제주도는 도내 자가 격리자들에 대한 불시 점검도 진행해 방역수칙 준수 위반 사례 여부도 확인할 방침입니다. KBS 뉴스 신익환입니다. 제주도내 관광지·명소 등 109곳 임시폐쇄…현장기동감찰팀 운영 입력 2021-01-01 10:11:43 수정2021-01-01 10:17:16 930뉴스(제주) [앵커] 연말연시를 맞았지만 코로나19로 여느 때와는 다른 상황입니다. 제주도가 감염 확산을 막겠다며 다음 달 3일까지 일출 명소와 관광지 등 109곳을 임시 폐쇄했는데, 일부 현장에선 제대로 지켜지지 않고 있습니다. 신익환 기자입니다. [리포트] 매년 이맘때 성산일출봉과 주요 일출 명소에서 열렸던 일출 축제는 이번엔 볼 수 없습니다. 코로나19 확산에 따른 연말연시 특별방역대책으로 도내 주요 관광지가 임시 폐쇄됐기 때문입니다. 제주도는 성산일출봉과 한라산국립공원 등 공영 관광지 11곳과 오름 34곳에 대한 출입을 제한한 데 이어, 한라수목원과 해수욕장 등 관광지 64곳도 추가로 폐쇄했습니다. 제주지역의 대표 관광지인 협재해수욕장 입구입니다. 임시 폐쇄를 알리는 현수막이 내걸렸습니다. 하지만 현장에선 통제선이나 통제하는 인원이 없는 곳도 있다보니 제대로 지켜지지 않았습니다.[관광객/음성변조 : "뭐 따로 (통제선 같은게) 처져 있는 건 없어서, 다 뚤려있던데요."] 한 해수욕장에선 폐쇄 조치에도 서핑을 하는 사람도 있었습니다. 사회적 거리두기가 2단계로 격상된 지난 18일부터 방역수칙 위반으로 제주도에서 시정조치한 사례가 20건을 넘어섰습니다. 제주도는 감염 취약지인 PC방과 키즈카페, 중점관리시설인 유흥시설과 식당, 카페 등의 방역 수칙 이행 여부를 점검하기 위해 현장기동감찰팀을 꾸렸습니다.[이중환/제주도 총괄조정관 : "방역수칙 위반 사실 발견 시에는 감염병 예방 및 관리에 관한 법률에 따라서 운영자에게는 3백만 원 이하의 벌금 또는 과태료를, 이용자에게는 십만 원 이하의 과태료를 부과할 계획입니다."] 제주도는 도내 자가 격리자들에 대한 불시 점검도 진행해 방역수칙 준수 위반 사례 여부도 확인할 방침입니다. KBS 뉴스 신익환입니다. 930뉴스(제주) 전체보기 기자 정보 신익환 기자 sih@kbs.co.kr 신익환 기자의 기사 모음 댓글 좋아요 공유하기 제주-주요뉴스 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 705억 예산 투입..코로나19 위기 ‘관광산업’ 재도약 기반 마련 - 투어코리아 - No.1 여행·축제 뉴스 × 전체기사 이슈 전체 정책 지역 사회 피플 여행 전체 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 전체 국내인기축제 세계축제 라이프 전체 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 최종편집 : 2022-10-11 14:34 (화) 처음으로 로그인 회원가입 facebook twitter rss post kakaoch instagram in-naver 전체기사 이슈 정책 지역 사회 피플 여행 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 국내인기축제 세계축제 라이프 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 기사검색 검색 실시간 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 도시민박업·한옥체험업 창업의 모든 것 '서울스테이 사업설명회' 18일 개최 대한민국 특별귀화자 1호 인요한, 2023순천만국제정원박람회 홍보대사 위촉 고양시, CJ라이브시티 조기 완공 추진 '민관 TF팀' 첫 회의 개최 풍속·해학 등 김홍도 예술혼 재현 '안산 김홍도축제' 4년만에 오프라인 개최 3년만에 만나는' 서울억새축제'서 은빛 감성 가을 낭만 즐겨요! 고창문화관광재단, 고창형 플리마켓 '고창한장 단풍마켓' 개최 핫뉴스 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 공주 금강신관공원 코스모스 활짝 감성 채워주는 공주 힐링스폿! "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! [포토] 핑크뮬리 유혹하는 함평 석두마을 올가을, ‘대전효문화뿌리축제’에서 뿌리 찾는 즐거움에 빠져볼까! 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 '수트라하버 리조트', MZ세대 겨냥 해외 골프패키지 홈쇼핑 판매 10월, 축제 분위기로 핫 한 '여수' 여행 재미에 빠져 봐~ 이전 다음 제주도, 705억 예산 투입..코로나19 위기 ‘관광산업’ 재도약 기반 마련 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 이슈 제주도, 705억 예산 투입..코로나19 위기 ‘관광산업’ 재도약 기반 마련 정하성 기자 승인 2021.01.08 16:45 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 제주관광진흥기금 융자 조기시행, 관광산업 회생에 주력 제주도는 올해 5대 핵심전략에 총 705억 원을 투입, 코로나19로 위기에 처한 관광산업이 재도약할 수 있는 기반 마련에 나선다. 올해 관광분야 정책목표를 ‘상생의 가치로 청정을 품은 안전 관광도시 제주’로 잡고, 일반회계 227억, 관광진흥기금 478억 등 총 705억 원을 투입할 방침이다. 5대 핵심전략 추진을 위해 ▲안전 관광제주 구축을 통한 관광산업 조기 회생에 190억 원 ▲빅데이터 기반 관광서비스 고도화 등 스마트 관광에 4.3억 원 ▲특색 있는 지역관광 육성으로 주민 소득 창출을 위한 사업에 22억 원 ▲지속가능한 제주 MICE 환경 조성에 175억 원 ▲제주관광시장에 알맞는 관광환경 맞춤형 마케팅에 104억 원 등을 투입한다. 제주도청 우선 관광산업 조기 회생을 위해 제주관광진흥기금 융자 예산 156억 원을 편성하고, 1월부터 특별융자를 시행한다. 또한 영세사업체에 키오스크, 모바일 도어락 시스템 등 장비 지원과 패턴별 여행 상품 개발에 따른 상품개발비, 차량 임차료를 지원하고, 온라인 마켓 ‘탐나오’ 관광상품 판매 확대, 도내 여행사업체 등에 보증보험 지원 등 34억 원을 투입할 계획이다. 제주 웰니스 관광 15선 선정 등 콘텐츠 발굴 및 홍보, 지역관광 활성화를 위한 공공기관과 민간 네트워크 구축 등을 추진한다. MICE 비대면 환경 변화에 따른 IT 기술 지원하고, 전시 및 특화 컨벤션, 제주유니크베뉴 등 발굴도 지원한다. 포스트코로나 대응 MICE 셔틀버스 및 행사장방역 지원과 스마트 마이스 베뉴 구축 및 컨벤션센터 시설개선, 그린 MICE 산업대전 신청 여행업체 지원 및 캠페인 등 그린 뉴딜사업도 추진한다. 코로나 일상 속 새로운 관광환경 맞춤형 전략적 마케팅 강화를 위해 스마트투어 관광정보 플랫폼 혁신과 소셜미디어 운영자, 유명 인플루언서 활용 제주여행콘텐츠 공모전을 운영한다. 국가별 코로나19 상황 단계별로 맞춤형 마케팅도 가동해 해외수요 조기 회복을 준비해 나간다. 해외시장 우위 선점을 위한 국제노선 조기복항 등 접근성 확충을 위하여 트래블버블 우수방역국가 대상 온·오프라인 마케팅에도 집중한다. 코로나19로 어려움을 겪고 있는 도내 관광업계를 위해 단체관광객 유치 마케팅 지원 사업 등에 15억 원을 지원한다. 이외에도 방문관광객 실태조사, 삼다공원야간콘서트, 관광공사  전출금 등 제주관광 경쟁력 강화에 147억 원, 관광객 환대서비스 개선에 17억 원, 문화관광해설사 활동 지원에 11억 원을 투입할 계획이다. 김재웅 제주도 관광국장은 “코로나19로 인해 관광산업이 어려움에 있는 만큼 관광업계 및 유관기관과 긴밀하게 협업해 관광산업 회생에 전 행정력을 집중하고, 기금 조기 지원 및 재정 신속 집행에도 우선순위를 둬 적극 추진하겠다”고 밝혔다. 한편, 지난해 제주를 찾은 관광객은 1,023만 명(잠정)으로 전년보다 33% 감소했다. 관광객은 내국인 1,002만 명, 외국인 21만 명으로 각각 26.1%, 87.7% 줄어들었다. 저작권자 © 투어코리아 - No.1 여행·축제 뉴스 무단전재 및 재배포 금지 정하성 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 당신만 안 본 뉴스 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 공주 금강신관공원 코스모스 활짝 감성 채워주는 공주 힐링스폿! "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 에디터 초이스 TRIP 신비로운 남원 서어나무숲에서 즐기는 가을 향기 BIZ 반짝이는 내 차를 위해, 세차 산업의 역사 FOOD 절대 갈변하지 않는 밤 보관 특급비법 CULTURE '월수금화목토' 아직은 질리지 않는 박민영표 로맨틱 코미디 LIFE 동요대회 입상한 노노카짱의 근황 투어코리아 Cover 145호 2022-10-01 구독신청 지난호보기 기사제보 광고문의 기자회원 신청 투어코리아 SNS 주요기사 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 투어코리아가 만난사람 [인터뷰] 박일호 밀양시장 “관광객이 감동하는 밀양 만들기 위해 고민” 국내축제 3년만에 만나는' 서울억새축제'서 은빛 감성 가을 낭만 즐겨요! 세계축제 진정한 미식가 축제 ‘싱가포르 푸드 페스티벌’ 팬데믹 이후 첫 대면 개최 국내여행 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 테마여행 올가을, 댕댕이와 크루즈 여행떠나요! 아시아 인스타그램 ‘좋아요’ 부르는 '힙한 홍콩 카페' 어디? 유럽 가을 낭만 더하는 이스탄불의 거리 탑3 미국·캐나다·중남미 배우 이기우 추천 캘리포니아 펫 프렌들리 여행지, '아빌라 비치' 중동·아프리카 로맨스 인 두바이? 사막에서 별빛 샤워, 관람차에서 야경 만끽! 오세아니아 '럭셔리 항공 투어'로 호주의 대자연 색다르게 즐겨봐! 전문가칼럼 [119기고] 공동주택 화재 안전은 피난설비 올바른 숙지부터 시작 최신뉴스 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 포토뉴스 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 인기뉴스 1 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 2 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 3 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 4 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 5 공주 금강신관공원 코스모스 활짝 6 감성 채워주는 공주 힐링스폿! 7 "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! 8 [포토] 핑크뮬리 유혹하는 함평 석두마을 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 법인명 : (주)태건미디어 사업자 등록번호 : 105-87-36240 서울특별시 종로구 송월길 136 301호 발행·편집인 : 유경훈 청소년보호책임자 : 조성란 대표전화 : 02-326-0002 이메일 : webmaster@tournews21.com 투어코리아 정기간행물 등록번호 : 종로 라 00420 등록일 : 2009-12-14 투어코리아뉴스 인터넷신문 등록번호 : 서울 아 03491 등록일 : 2014-12-18 발행일 : 2014-12-18 투어코리아 - No.1 여행·축제 뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 투어코리아 - No.1 여행·축제 뉴스. All rights reserved. mail to webmaster@tournews21.com 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사랑나눔봉사단, 희망나눔 성금 기탁 &lt; 사회/교육 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 사랑나눔봉사단, 희망나눔 성금 기탁 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회/교육 제주도관광협회 사랑나눔봉사단, 희망나눔 성금 기탁 기자명 제주매일 입력 2021.01.05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도 관광협회(회장 부동석) 사랑나눔봉사단은  4일 제주종합비지니스센터에서 소외된 이웃을 위한 희망나눔 특별성금 300만원을 대한적십자사제주특별자치도지사(회장 오홍식)에 기탁했다. 부동석 회장은 “최근 코로나19로 도내 관광업이 어려운 상황임에도 회원들이 한마음 한뜻으로 마음을 모았다”며 “앞으로도 소외된 이웃에게 희망을 전하는 나눔과 봉사활동에 동참하도록 노력하겠다”고 말했다. 한편, 협회는 지역사회 나눔문화 확산에 기여한 공로로 적십자회원유공장 명예장을 수상한 바 있다. 제주매일 news@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주소년원에 TV 전달 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주소년원에 TV 전달 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회, 제주소년원에 TV 전달 기자명 제주매일 입력 2021.01.03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회 사업 지원분과위원회(회장 고철원)는 최근 소년원을 방문해 100만원 상당의 32인치 LED TV 3대를 전달했다고 밝혔다. 제주특별자치도관광협회 사업지원분과위원회는 해마다 어려운 이웃을 도와주고 있으며, 올해는 제주소년원에 TV를 전달했다. 고철원 회장은 “코로나19로 모두가 힘든 시기지만 학생들에게 작은 도움 이나마 주고 싶은 마음에 회원들과 뜻을 모았고, 학생들을 직접 만나 전하지 못해 아쉽지만 코로나19를 잘 이겨내길 바란다”고 말했다. 민근기 원장은 “코로나19 장기화로 면회와 외부활동이 제한되었지만 학생들에게 많은 관심과 손길을 전하는 지역 사회의 여러 기관과 단체에 감사하며  학생들의 올바른 성장을 위해 노력하겠다”고 감사의 마음을 전했다. 제주매일 news@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[장원호 박사의 그리운 대한민국] 제주도의 오름, 한림공원, 협제동굴, 중문관광단지, 성산포는 언제 보아도 신비롭다 - CIVICNEWS(시빅뉴스) × 전체기사 뉴스 전체 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 전체 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 이철우 교수의 에너지와 국제정치 북녘말 남녘말 글로벌 탐방 황령산칼럼 전체 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 권만우 칼럼 오피니언 전체 시빅칼럼 시빅광장 시빅건강칼럼 카드뉴스 전체 카드뉴스 포토뉴스 동영상 전체 줌인 시빅TV 콘텐츠 DB 전체 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 news roundup 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 UPDATED. 2022-10-10 19:39 (월) 로그인 회원가입 모바일웹 tiwt facebook naver youtube 모바일웹 전체 뉴스 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 황령산칼럼 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 오피니언 시빅광장 시빅건강칼럼 시빅칼럼 카드뉴스 카드뉴스 포토뉴스 동영상 줌인 시빅TV 콘텐츠 DB 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 기사검색 검색 뉴스 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 황령산칼럼 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 오피니언 시빅광장 시빅건강칼럼 시빅칼럼 카드뉴스 카드뉴스 포토뉴스 동영상 줌인 시빅TV 콘텐츠 DB 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 이전 다음 [장원호 박사의 그리운 대한민국] 제주도의 오름, 한림공원, 협제동굴, 중문관광단지, 성산포는 언제 보아도 신비롭다 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 기획 장원호 박사의 그리운 대한민국 [장원호 박사의 그리운 대한민국] 제주도의 오름, 한림공원, 협제동굴, 중문관광단지, 성산포는 언제 보아도 신비롭다 장원호 승인 2021.01.16 11:31 댓글 0 페이스북 트위터 카카오스토리 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도의 크고 작은 오름 오르며 '오름에서 태어나 오름으로 돌아간다'는 말 음미 한림공원은 개인이 가꾸고 키웠다는 정성이 한아름 가득 협제동굴의 신비로움을 즐기며 제주의 멋에 빠지다 흔들리는 가을 억새와 붉게 물든 하늘이 아름답게 어우러지는 제주도에 우리 세가족이 일 주일간을 같이 보내는 계획이 2017년에 섰다. 작은 아들 유진이 가족과 큰 아들 철준이 가족은  10월 26일 먼저 내려가고, 철준이와 우리 내외 셋은 10월 28일 대구에서 조카 은정이 결혼식을 마치고 저녁 비행기로 제주에 도착했다. 제주도 오름에서 볼 수 있는 억새는 한국 어디에서 본 것보다 가장 아름다웠다(사진: 장원호 박사 제공). 마침 사돈 이삼열 박사의 친지가 제주시에 아름다운 별장을 갖고 있어서, 우리는 그 집을 빌려 우리 가족 일행 9명이 오붓한 휴양과 관광을 즐길 수 있었다. 우리 가족이 두 팀으로 나뉘어 내려가게 되니, 차도 두 대를 빌려서 제주도를 여행하게 됐다. 첫 날 처음 들린 곳은 한담 해안이었다. 제주 삼다의 하나인 바람이 무척 세게 부는 가을 날씨때문에 유명한 산책로를 걷지 못한 것이 아쉬웠다. 잔뜩 찌푸리고 바람이 세차게 불어대는 날씨에도 해변 모래는 스스로 눈부시고, 드넓은 해안으로 밀려드는 파도는 여전히 옅은 푸름을 머금고 있었다. 해변에서 멀어질수록 조금씩 짙어지는 바다색 덕분에 한담 해안은 제주에서 가장 깨끗하다고 소문난 곳이다. 바다가 내려다보이는 언덕 위는 예쁜 카페와 숙박업소가 자리 잡았고, 그 빈틈에 원형을 유지한 공원도 정겨웠다. 바다가 내려다보이는 한담마을 언덕엔 대형 카페 봄날이 자리 잡고 있었다. 봄날 카페 건물은 안팎으로 바다를 가득 품은 천혜의 위치에 있으며 MBC가 '맨도롤 또똣'이란 드라마를 촬영했다고 해서 유명해졌다고 한다. 한담 해안 곳곳에는 아름다운 카페가 여럿 있다. 카페 정원에서 가족이 포즈를 취했다(사진: 장원호 박사 제공). 한담 해안 카페 중 하나는 MBC 드라마 '맨도롤 또똣' 촬영지로 유명해졌다고 한다(사진: 장원호 박사 제공). 한담 해안의 바닷가를 배경으로 가족이 모였다. 한담 해안의 짓푸른 바닷색이 유명하다(사진: 장원호 박사 제공). 한담 마을을 보고 그 근처에 있는 한림 공원을 찾았다. 어느 여름에 협제 해수욕장을 왔던 기억이 까마득한데, 그 시절에 이 공원을 가보자고 일행이 제안했지만 그냥 지나쳤던 것을 후회하고 있던 참이었다. 10만여 평이 넘는 면적 위에 하늘로 우뚝 뻗은 야자수 군락과 울창한 소나무 수풀로 둘러 싸인 한림공원은 아직도 살아 있는 92세의 송병규 씨가 만든 개인 소유 공원이다. 제주를 사랑하는 마음으로 온갖 정성을 드려서 만든 이 공원에는 다양한 종류의 꽃과 나무가 사계절 아름다운 경관을 연출한다. 특히, 야자수길, 협재와 쌍용동굴, 아열대식물원, 제주 분재원, 재암 민속 마을, 수석전시관, 새가 있는 정원, 연못정원 등이 있어서 볼거리가 지천으로 널려 있었다. 한림 공원은 개인 소유의 공원으로 야자수와 우거진 수풀로 덮여 있고 각종 볼거리가 많다(사진: 장원호 박사 제공). 한림 공원 내의 아름다운 식물원 모습(사진: 장원호 박사 제공). 협제 동굴은 250만 년 전 한라산 일대의 화산이 폭발하면서 용암이 흘러내려 형성된 검은 색의 용암 동굴이다. 주변에서 동굴로 스며드는 석회수로 인하여 황금 빛 석회동굴로 변해가는 신비스러운 모습을 볼 수 있는 세계 유일의 2차원 복합 동굴이라고 한다. 협제 동굴은 석회 동굴에서만 볼 수 있는 석순과 종유석들이 자라고 있는 용암 동굴로서 학술적 가치를 크게 인정받고 있다고 한다. 그리고 동굴의 내부 천정 모습이 마치 두 마리 용이 빠져 나온 모양을 하고 있어서 쌍용동굴이라고도 불린다. 협제공원을 나와서 남쪽으로 조금 내려가면 제주도의 새로운 명소 중문관광단지가 있다. 이 곳은 제주의 독특한 자연 경관과 지리적 조건을 활용하여 국제적인 휴양지로 개발하고자 한국관광공사가 1978년부터 서귀포 옆에 조성한 엄청난 규모를 자랑하는 광광지다. 이 개발 초기인 전두환 정권 시절에 나는 KOBACO(한국방송광고공사)가 건설한 중문 골프장을 몇 번 다녀 올 기회가 있었는데, 당시에는 이곳이 지금과 같은 엄청난 규모의 관광단지로 발전하리라고는 상상도 하지 못했다. 중문관광 단지는 제주도의 관광산업이 국제적인 수준으로 발전할 수 있게 된 원동력이 됐다고 한다. 제주도는 화산으로 이루어 진 큰 섬이다. 땅바닥에는 아직도 검은 화산석이 깔려 있고, 사방에 검은 화산석이 쌓여있다. 그리고 한라산 높은 산 위에 자리 잡은 백록담도 화산이 솟아나던 분화구였다고 한다. 제주를 사랑하는 사람들은 제주에 360여 개가 넘는 크고 작고, 유명하고, 때론 이름도 없는 오름을 사랑한다. 나는 제주에 올 때마다 유명한 오름을 찾아 다녔지만 잘 안 알려진 많은 오름이 언제나 새삼스럽고 신비스럽다. 제주 사람들에게 오름은 마음의 고향이다. ‘오름에서 태어나 오름으로 돌아간다’고 할 만큼 제주인들에게 오름은 삶의 터전이자 공기와도 같은 생활환경이다. 오름 가까이 마을이 생겨났고 죽은 자는 오름 자락에 산담의 보호 아래 묻혔다. 각각의 오름에는 제주 사람들의 얼과 혼이 서려있다. 최근에는 제주 사람들 뿐만 아니라 여행자들에게도 오름이 관심의 대상이 되고 있다. 저마다 다른 생김새, 올라서 바라보는 장쾌한 풍경, 사시사철 다르게 피어나는 야생화들, 마소가 한가로이 풀을 뜯는 목가적인 풍경 등 오름이 연출하는 제주의 독특한 자연은 언제나 우리가 가까이 만날 수 있고 제주인의 삶의 향기를 맡을 수 있는 곳이다. 오름은 대부분 화산석 송이로 이루어져 있다. 비가 많이 내려도 금방 빠져 나가 버리고, 뿌리를 지탱할 만큼 흙이 단단하지 않아 큰 나무보다는 풀들이 잘 자라는 초지였다고 한다. 현재의 숲이 있는 오름은 사람들이 일부러 나무를 심어놓고 관리해서 숲이 울창해진 것이라고 한다. 오름은 그 형태가 제각각이다. 원추형으로 솟아있는가 하면, 분화구(굼부리)를 지니고 있다는 것도 있다. 원형도 있지만 대부분은 말굽형으로 지질이 약한 쪽으로 흘러내리거나 무너져 내린 형태를 하고 있다. 오름 분화구에 물을 가득 담고 있는 화구호가 있는 오름들은 신비롭다. 한라산 등산로 변에 위치한 사라오름과 사려니숲길에 위치한 물찻오름을 비롯하여 람사르 습지로 지정된 물영아리, 물장오리 등 화구호가 있는 오 은 모두 9곳이 있다. 바람이 몹시 부는 저녁에 공항 근처 오솔록 다원을 갔다. 오솔록 주변은 이곳이 올 때마다 들렸지만, 이번에는 다원 옆에 세워진 'Innisfree Jeju House'에 들려 예쁘게 만든 케익과 차를 마셔보고 싶었다. 이 멋진 하우스는 이니스프리 모음재단에서 경영하며, 이 재단은 '제주의 가치를 더한다'는 슬로건으로 제주 본연의 가치를 지키고 사회와 함께 가꾸어 다시 제주에 제공한다는 공익적 목적을 가지고 있다고 한다. 이 재단의 고상한 의지에 감명 받아 우리 일행은 좀 비싼 차와 케익을 먹었고, 또 작은 선물을 아낌없이 샀다. 우리는 오솔록에서 숙소로 오는 길목에 있는 '운정이네 식당에 들렸다. 아주 깨끗하고 바다가 창밖으로 보이는 이 식당 주인은 자기 딸 운정이가 먹는 토종 음식을 만든다고 자랑한다. 철이 아니어서 그런지 식당마다 제주 특산인 옥돔은 메뉴에 없었고, 양식한 전복과 많이 따오는 소라가 주메뉴였다, 제주도에서 먹는 소라는 그 크기가 작은 편이다. 소라는 회로도 먹지만 역시 구워서 먹는 것이 일품이다. 오설록 근처의 운정이네 식당은 정갈한 메뉴로 맛갈나는 음식을 제공했다(사진: 장원호 박사 제공). 둘째 날 계획은 세화장터를 들려서 성산포를 가서 배를 타고 우도를 돌아보는 날이다. 사실 나는 이곳을 여러 번 다녀왔지만, 우도를 가보지는 못했다. 내가 가던 때는 우도가 관광지가 되고 연락선이 생기기 전이었기 때문이다. 성산포에는 유일한 관광호텔인 '일출봉 호텔'이 일출봉 바로 밑에 있다. 이 호텔을 지은 성도경 교장 선생님은 나의 처형의 남편이시다. 한국전쟁이 휴전되고 폐허가 된 한반도에 대구에서 흙벽돌집로 건물을 지어 사립 중학교를 세우고 청년 시절부터 교장이 됐다. 그 후 여러 사립학교를 창립했으며, 지금도 경남 창원의 관광고등학교를 관리하는 이사장이다. 우리는 그 분을 늘 교장선생님이라고 부른다. 지금은 교장직에서 은퇴하고 성산포의 일출봉을 처음 다녀온 후, 은퇴인의 정열을 호텔사업에 쏟아부어 본인이 땅을 구입하고, 또 설계도 하여 호텔을 지었다. 어려운 호텔을 몇 번이고 뜯어 고폈고, 경영이 어려워 큰 아들에게 운영을 넘겼다가, 지금은 다른 분이 인수하여 호텔을 운영하고 있다. 성산포에는 유명한 세화장터가 있다. 지금은 규모가 커져서 옛날 장터의 소박함이 줄었다(사진: 장원호 박사 제공). 이 호텔이 세워지고 나서, 나는 미국에서 한국에 갈 때마다 제주의 아름다운 비경을 보려고 이곳 호텔에서 체재하면서 성산포 일대를 돌아다녀서 이 지역을 잘 안다. 특히, 세화장터는 몇 번이고 들려 장을 보기도 했다. 지금은 세화장터가 더욱 커져서 온갖 잡화와 식료품이 있지만, 이제는 소박한 옛날 장터 맛이 나지 않아서 아쉬웠다. *편집자주: 다음 주에 우도 얘기부터 계속됩니다. Tag #한담해안 #제주 삼다 #한담마을 #맨도롤 또똣 #한림공원 #손병규 #협제동굴 #중문관광단지 #오름 #이니스프리 제주하우스 #성산포 #일출봉 호텔 #세화장터 저작권자 © CIVICNEWS(시빅뉴스) 무단전재 및 재배포 금지 장원호 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 관련기사 [장원호 박사의 그리운 대한민국] 전북 고창의 고인돌박물관, 청보리밭, 그리고 선운사에서 동학운동을 생각하다 [장원호 박사의 그리운 대한민국] 고대 교수산악회 추억의 등산코스 덕유산과 무주구천동 [장원호 박사의 그리운 대한민국] 전북 순창에서 한정식과 순창 고추장 맛에 반하고, 구례 화엄사 둘러 보다 [장원호 박사의 그리운 대한민국] 진도에서 진도아리랑, 모세의 기적, 강강술래, 그리고 운림산방의 예술혼을 느끼다 [장원호 박사의 그리운 대한민국] 홍도의 절경, '흑산도 아가씨' 노래비, 그리고 '자산어보'의 정약전 사당과 유배문화공원을 둘러 보다 [장원호 박사의 그리운 대한민국] 제주도 '롯데 리조트 아트 빌라스'에서 묵으면서 사려니 숲, 산굼부리, 그리고 제주돌문화공원을 구경하다 [장원호 박사의 그리운 대한민국] 섭지코지 숲의 아름다움, 쇠소깍 호수의 경이로움, 저지오름 풍광의 향긋함, 그리고 협재해수욕장 바다의 상쾌함 [장원호 박사의 그리운 대한민국] 독자 여러분 감사합니다...우도 여행을 끝으로 '그리운 대한민국' 여행기 연재 마칩니다 [카드뉴스] 해외여행・출장도 가능해지는 '백신 여권'…가까워지는 코로나 이전의 일상 [박창희 칼럼] 경이로운 한라산, 말라버린 백록담 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 많이 본 뉴스 1[박기철 칼럼] 포지타노 마을이 매력적인 까닭 2서울서 2030부산세계박람회 ‘X4 쇼케이스’ 개최...전소미 아린 등 X4 멤버의 사인회 열려 32030세대의 돈 모으기법 ‘짠테크’ 열풍... 명절 선물세트 당근마켓에 팔고, 빈 병 모아 술값 보태기도 4부산역서 부산세계시민축제 개최... '세계문화 체험' 기회 5tvN ‘작은 아씨들’ 화제...연출, 배우, 전개 등 흥미로운 요소 가득 6글로벌 창업 축제 ‘COMEUP’ 주요 프로그램 부산에서 열려 7[독자투고] ‘공인중개사 중개 보조원'이 부동산 매물 불법 중개, 이대로 괜찮나 82030인분 비빔밥으로 세계 한인들 부산세계박람회 유치 기원 9[내일(5일) 날씨] 모레(6일)까지 전국 대체로 흐리다 10구독형 서비스 도입한 한글과컴퓨터 ‘한컴독스’ 출시 최신기사 "나만의 메뉴로 승부!"... 대학생 ‘베이커리 크리에이터’의 창업 스토리 "나만의 메뉴로 승부!"... 대학생 ‘베이커리 크리에이터’의 창업 스토리 [송문석 칼럼] 대통령의 언어, 리더의 대화법 [송문석 칼럼] 대통령의 언어, 리더의 대화법 3년 만에 개최되는 ‘제23회 부산 국제관광전’...세줄일기 배준호 대표 만날 수 있어 3년 만에 개최되는 ‘제23회 부산 국제관광전’...세줄일기 배준호 대표 만날 수 있어 영원한 조선의 4번 타자 이대호, 오는 8일 마지막 경기 펼치고 그라운드 떠난다 영원한 조선의 4번 타자 이대호, 오는 8일 마지막 경기 펼치고 그라운드 떠난다 [내일(8일) 날씨] 오늘 저녁까지 순간풍속 매우 강하게 분다 [내일(8일) 날씨] 오늘 저녁까지 순간풍속 매우 강하게 분다 '따닥!' 경쾌한 스트라이크로 스트레스 타파...볼링에 빠진 사람들 '따닥!' 경쾌한 스트라이크로 스트레스 타파...볼링에 빠진 사람들 [내일(7일) 날씨] 전국적으로 구름 많고 일부 지역 비 오는 곳 있겠다 [내일(7일) 날씨] 전국적으로 구름 많고 일부 지역 비 오는 곳 있겠다 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 부산광역시 남구 수영로 309 경성대학교 23호관 301호 대표전화 : 051-663-5129 팩스 : 051-663-5129 법인명 : 시빅뉴스 제호 : CIVICNEWS(시빅뉴스) 등록번호 : 부산 아 00147 등록일 : 최초등록 2013-03-15, 재등록 2016-05-09 사업자 등록번호 : 617-82-12810 대표·발행인 : 권만우 편집인 : 권만우 편집국장 : 송문석 논설주간 : 박창희 CIVICNEWS(시빅뉴스) 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받은 바, 무단 전재와 복사 및 배포 등을 금합니다.CIVICNEWS(시빅뉴스)는 사단법인 인터넷신문위원회의 기사 및 광고 부문 자율규약을 준수합니다. Copyright © 2022 CIVICNEWS(시빅뉴스). All rights reserved. mail to civic_news@naver.com 위로</t>
   </si>
 </sst>
 </file>
@@ -434,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -466,6 +580,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -475,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -551,8 +668,219 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
